--- a/ha-asset/01_design/05_rootapi/設計書_5.1.ログインAPI.xlsx
+++ b/ha-asset/01_design/05_rootapi/設計書_5.1.ログインAPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\05_rootapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F2ACD5-B053-4613-816F-BFD0C91ACDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926DA902-1D01-45C7-999C-51AE7C23F8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
   <si>
     <t>更新日時</t>
   </si>
@@ -58,9 +58,6 @@
     <t>必須</t>
   </si>
   <si>
-    <t>2.1.2.処理詳細</t>
-  </si>
-  <si>
     <t>処理概要</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>エラーメッセージ</t>
   </si>
   <si>
-    <t>2.1.3.DB処理</t>
-  </si>
-  <si>
     <t>入力</t>
   </si>
   <si>
@@ -100,16 +94,10 @@
     <t>WHERE</t>
   </si>
   <si>
-    <t>2.1.4.備考</t>
-  </si>
-  <si>
     <t>文字コード</t>
   </si>
   <si>
     <t>byte数</t>
-  </si>
-  <si>
-    <t>2.1.1.API仕様</t>
   </si>
   <si>
     <t>API名</t>
@@ -467,6 +455,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -486,6 +475,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -989,6 +979,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1003,95 +1006,75 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1105,6 +1088,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1397,681 +1387,681 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2"/>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="49"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="54"/>
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="2"/>
-      <c r="B4" s="51">
+      <c r="B4" s="56">
         <v>44359</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="52" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="47" t="s">
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="49"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="54"/>
       <c r="AA4" s="2"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="49"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="54"/>
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="49"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="54"/>
       <c r="AA6" s="2"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="2"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="49"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="54"/>
       <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="2"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="49"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="54"/>
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="2"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="49"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="54"/>
       <c r="AA9" s="2"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="2"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="49"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="54"/>
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="2"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="49"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="54"/>
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="2"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="49"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="54"/>
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="2"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="49"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="54"/>
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="2"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="49"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="54"/>
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="2"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="49"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="54"/>
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="2"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="49"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="54"/>
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="2"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="49"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="54"/>
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="2"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="49"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="54"/>
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="2"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="49"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="54"/>
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="2"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="49"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="54"/>
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="2"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="49"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="54"/>
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="2"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="49"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="54"/>
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="2"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="49"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="54"/>
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="2"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="49"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="54"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="2"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="49"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="54"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27">
@@ -2134,12 +2124,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -2149,60 +2187,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2334,7 +2324,7 @@
     <row r="3" spans="1:49">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2388,7 +2378,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3828,16 +3818,14 @@
   </sheetPr>
   <dimension ref="A1:BP54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC27" sqref="AC27:AK28"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="68" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68">
+    <row r="1" spans="1:68" ht="16.5">
       <c r="A1" s="45" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>2.1.ログインAPI</v>
@@ -3910,7 +3898,7 @@
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
     </row>
-    <row r="2" spans="1:68">
+    <row r="2" spans="1:68" ht="16.5">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3980,7 +3968,7 @@
       <c r="BO2" s="2"/>
       <c r="BP2" s="2"/>
     </row>
-    <row r="3" spans="1:68">
+    <row r="3" spans="1:68" ht="16.5">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4050,9 +4038,10 @@
       <c r="BO3" s="2"/>
       <c r="BP3" s="2"/>
     </row>
-    <row r="4" spans="1:68">
-      <c r="A4" s="12" t="s">
-        <v>26</v>
+    <row r="4" spans="1:68" ht="16.5">
+      <c r="A4" s="12" t="str">
+        <f ca="1">LEFT($A$1, 4)&amp;"1.API仕様"</f>
+        <v>2.1.1.API仕様</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
@@ -4122,7 +4111,7 @@
       <c r="BO4" s="6"/>
       <c r="BP4" s="6"/>
     </row>
-    <row r="5" spans="1:68">
+    <row r="5" spans="1:68" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -4192,10 +4181,10 @@
       <c r="BO5" s="3"/>
       <c r="BP5" s="2"/>
     </row>
-    <row r="6" spans="1:68" outlineLevel="1">
+    <row r="6" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A6" s="2"/>
       <c r="B6" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -4264,307 +4253,307 @@
       <c r="BO6" s="17"/>
       <c r="BP6" s="2"/>
     </row>
-    <row r="7" spans="1:68" outlineLevel="1">
+    <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="18"/>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="53"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="53"/>
+      <c r="AK7" s="53"/>
+      <c r="AL7" s="53"/>
+      <c r="AM7" s="53"/>
+      <c r="AN7" s="53"/>
+      <c r="AO7" s="53"/>
+      <c r="AP7" s="53"/>
+      <c r="AQ7" s="53"/>
+      <c r="AR7" s="53"/>
+      <c r="AS7" s="53"/>
+      <c r="AT7" s="53"/>
+      <c r="AU7" s="53"/>
+      <c r="AV7" s="53"/>
+      <c r="AW7" s="53"/>
+      <c r="AX7" s="53"/>
+      <c r="AY7" s="53"/>
+      <c r="AZ7" s="53"/>
+      <c r="BA7" s="53"/>
+      <c r="BB7" s="53"/>
+      <c r="BC7" s="53"/>
+      <c r="BD7" s="53"/>
+      <c r="BE7" s="53"/>
+      <c r="BF7" s="53"/>
+      <c r="BG7" s="53"/>
+      <c r="BH7" s="53"/>
+      <c r="BI7" s="53"/>
+      <c r="BJ7" s="53"/>
+      <c r="BK7" s="53"/>
+      <c r="BL7" s="53"/>
+      <c r="BM7" s="53"/>
+      <c r="BN7" s="53"/>
+      <c r="BO7" s="54"/>
+      <c r="BP7" s="2"/>
+    </row>
+    <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="53"/>
+      <c r="AP8" s="53"/>
+      <c r="AQ8" s="53"/>
+      <c r="AR8" s="53"/>
+      <c r="AS8" s="53"/>
+      <c r="AT8" s="53"/>
+      <c r="AU8" s="53"/>
+      <c r="AV8" s="53"/>
+      <c r="AW8" s="53"/>
+      <c r="AX8" s="53"/>
+      <c r="AY8" s="53"/>
+      <c r="AZ8" s="53"/>
+      <c r="BA8" s="53"/>
+      <c r="BB8" s="53"/>
+      <c r="BC8" s="53"/>
+      <c r="BD8" s="53"/>
+      <c r="BE8" s="53"/>
+      <c r="BF8" s="53"/>
+      <c r="BG8" s="53"/>
+      <c r="BH8" s="53"/>
+      <c r="BI8" s="53"/>
+      <c r="BJ8" s="53"/>
+      <c r="BK8" s="53"/>
+      <c r="BL8" s="53"/>
+      <c r="BM8" s="53"/>
+      <c r="BN8" s="53"/>
+      <c r="BO8" s="54"/>
+      <c r="BP8" s="2"/>
+    </row>
+    <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="57" t="s">
-        <v>29</v>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="53"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="53"/>
+      <c r="AL9" s="53"/>
+      <c r="AM9" s="53"/>
+      <c r="AN9" s="53"/>
+      <c r="AO9" s="53"/>
+      <c r="AP9" s="53"/>
+      <c r="AQ9" s="53"/>
+      <c r="AR9" s="53"/>
+      <c r="AS9" s="53"/>
+      <c r="AT9" s="53"/>
+      <c r="AU9" s="53"/>
+      <c r="AV9" s="53"/>
+      <c r="AW9" s="53"/>
+      <c r="AX9" s="53"/>
+      <c r="AY9" s="53"/>
+      <c r="AZ9" s="53"/>
+      <c r="BA9" s="53"/>
+      <c r="BB9" s="53"/>
+      <c r="BC9" s="53"/>
+      <c r="BD9" s="53"/>
+      <c r="BE9" s="53"/>
+      <c r="BF9" s="53"/>
+      <c r="BG9" s="53"/>
+      <c r="BH9" s="53"/>
+      <c r="BI9" s="53"/>
+      <c r="BJ9" s="53"/>
+      <c r="BK9" s="53"/>
+      <c r="BL9" s="53"/>
+      <c r="BM9" s="53"/>
+      <c r="BN9" s="53"/>
+      <c r="BO9" s="54"/>
+      <c r="BP9" s="2"/>
+    </row>
+    <row r="10" spans="1:68" s="49" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="83" t="s">
+        <v>75</v>
       </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="48"/>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="48"/>
-      <c r="AH7" s="48"/>
-      <c r="AI7" s="48"/>
-      <c r="AJ7" s="48"/>
-      <c r="AK7" s="48"/>
-      <c r="AL7" s="48"/>
-      <c r="AM7" s="48"/>
-      <c r="AN7" s="48"/>
-      <c r="AO7" s="48"/>
-      <c r="AP7" s="48"/>
-      <c r="AQ7" s="48"/>
-      <c r="AR7" s="48"/>
-      <c r="AS7" s="48"/>
-      <c r="AT7" s="48"/>
-      <c r="AU7" s="48"/>
-      <c r="AV7" s="48"/>
-      <c r="AW7" s="48"/>
-      <c r="AX7" s="48"/>
-      <c r="AY7" s="48"/>
-      <c r="AZ7" s="48"/>
-      <c r="BA7" s="48"/>
-      <c r="BB7" s="48"/>
-      <c r="BC7" s="48"/>
-      <c r="BD7" s="48"/>
-      <c r="BE7" s="48"/>
-      <c r="BF7" s="48"/>
-      <c r="BG7" s="48"/>
-      <c r="BH7" s="48"/>
-      <c r="BI7" s="48"/>
-      <c r="BJ7" s="48"/>
-      <c r="BK7" s="48"/>
-      <c r="BL7" s="48"/>
-      <c r="BM7" s="48"/>
-      <c r="BN7" s="48"/>
-      <c r="BO7" s="49"/>
-      <c r="BP7" s="2"/>
-    </row>
-    <row r="8" spans="1:68" outlineLevel="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="68" t="s">
-        <v>24</v>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="87" t="s">
+        <v>76</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="48"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="48"/>
-      <c r="AK8" s="48"/>
-      <c r="AL8" s="48"/>
-      <c r="AM8" s="48"/>
-      <c r="AN8" s="48"/>
-      <c r="AO8" s="48"/>
-      <c r="AP8" s="48"/>
-      <c r="AQ8" s="48"/>
-      <c r="AR8" s="48"/>
-      <c r="AS8" s="48"/>
-      <c r="AT8" s="48"/>
-      <c r="AU8" s="48"/>
-      <c r="AV8" s="48"/>
-      <c r="AW8" s="48"/>
-      <c r="AX8" s="48"/>
-      <c r="AY8" s="48"/>
-      <c r="AZ8" s="48"/>
-      <c r="BA8" s="48"/>
-      <c r="BB8" s="48"/>
-      <c r="BC8" s="48"/>
-      <c r="BD8" s="48"/>
-      <c r="BE8" s="48"/>
-      <c r="BF8" s="48"/>
-      <c r="BG8" s="48"/>
-      <c r="BH8" s="48"/>
-      <c r="BI8" s="48"/>
-      <c r="BJ8" s="48"/>
-      <c r="BK8" s="48"/>
-      <c r="BL8" s="48"/>
-      <c r="BM8" s="48"/>
-      <c r="BN8" s="48"/>
-      <c r="BO8" s="49"/>
-      <c r="BP8" s="2"/>
-    </row>
-    <row r="9" spans="1:68" outlineLevel="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="48"/>
-      <c r="AE9" s="48"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="48"/>
-      <c r="AH9" s="48"/>
-      <c r="AI9" s="48"/>
-      <c r="AJ9" s="48"/>
-      <c r="AK9" s="48"/>
-      <c r="AL9" s="48"/>
-      <c r="AM9" s="48"/>
-      <c r="AN9" s="48"/>
-      <c r="AO9" s="48"/>
-      <c r="AP9" s="48"/>
-      <c r="AQ9" s="48"/>
-      <c r="AR9" s="48"/>
-      <c r="AS9" s="48"/>
-      <c r="AT9" s="48"/>
-      <c r="AU9" s="48"/>
-      <c r="AV9" s="48"/>
-      <c r="AW9" s="48"/>
-      <c r="AX9" s="48"/>
-      <c r="AY9" s="48"/>
-      <c r="AZ9" s="48"/>
-      <c r="BA9" s="48"/>
-      <c r="BB9" s="48"/>
-      <c r="BC9" s="48"/>
-      <c r="BD9" s="48"/>
-      <c r="BE9" s="48"/>
-      <c r="BF9" s="48"/>
-      <c r="BG9" s="48"/>
-      <c r="BH9" s="48"/>
-      <c r="BI9" s="48"/>
-      <c r="BJ9" s="48"/>
-      <c r="BK9" s="48"/>
-      <c r="BL9" s="48"/>
-      <c r="BM9" s="48"/>
-      <c r="BN9" s="48"/>
-      <c r="BO9" s="49"/>
-      <c r="BP9" s="2"/>
-    </row>
-    <row r="10" spans="1:68" s="75" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A10" s="71"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="74"/>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="74"/>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="74"/>
-      <c r="AN10" s="74"/>
-      <c r="AO10" s="74"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="74"/>
-      <c r="AR10" s="74"/>
-      <c r="AS10" s="74"/>
-      <c r="AT10" s="74"/>
-      <c r="AU10" s="74"/>
-      <c r="AV10" s="74"/>
-      <c r="AW10" s="74"/>
-      <c r="AX10" s="74"/>
-      <c r="AY10" s="74"/>
-      <c r="AZ10" s="74"/>
-      <c r="BA10" s="74"/>
-      <c r="BB10" s="74"/>
-      <c r="BC10" s="74"/>
-      <c r="BD10" s="74"/>
-      <c r="BE10" s="74"/>
-      <c r="BF10" s="74"/>
-      <c r="BG10" s="74"/>
-      <c r="BH10" s="74"/>
-      <c r="BI10" s="74"/>
-      <c r="BJ10" s="74"/>
-      <c r="BK10" s="74"/>
-      <c r="BL10" s="74"/>
-      <c r="BM10" s="74"/>
-      <c r="BN10" s="74"/>
-      <c r="BO10" s="74"/>
-      <c r="BP10" s="71"/>
-    </row>
-    <row r="11" spans="1:68" outlineLevel="1">
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="87"/>
+      <c r="AE10" s="87"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="87"/>
+      <c r="AS10" s="87"/>
+      <c r="AT10" s="87"/>
+      <c r="AU10" s="87"/>
+      <c r="AV10" s="87"/>
+      <c r="AW10" s="87"/>
+      <c r="AX10" s="87"/>
+      <c r="AY10" s="87"/>
+      <c r="AZ10" s="87"/>
+      <c r="BA10" s="87"/>
+      <c r="BB10" s="87"/>
+      <c r="BC10" s="87"/>
+      <c r="BD10" s="87"/>
+      <c r="BE10" s="87"/>
+      <c r="BF10" s="87"/>
+      <c r="BG10" s="87"/>
+      <c r="BH10" s="87"/>
+      <c r="BI10" s="87"/>
+      <c r="BJ10" s="87"/>
+      <c r="BK10" s="87"/>
+      <c r="BL10" s="87"/>
+      <c r="BM10" s="87"/>
+      <c r="BN10" s="87"/>
+      <c r="BO10" s="87"/>
+      <c r="BP10" s="47"/>
+    </row>
+    <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A11" s="2"/>
       <c r="B11" s="18"/>
       <c r="C11" s="19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4632,159 +4621,159 @@
       <c r="BO11" s="21"/>
       <c r="BP11" s="2"/>
     </row>
-    <row r="12" spans="1:68" outlineLevel="1">
+    <row r="12" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A12" s="2"/>
       <c r="B12" s="18"/>
       <c r="C12" s="22"/>
-      <c r="D12" s="57" t="s">
-        <v>34</v>
+      <c r="D12" s="70" t="s">
+        <v>30</v>
       </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="67" t="s">
-        <v>35</v>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="72" t="s">
+        <v>31</v>
       </c>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="48"/>
-      <c r="AI12" s="48"/>
-      <c r="AJ12" s="48"/>
-      <c r="AK12" s="48"/>
-      <c r="AL12" s="48"/>
-      <c r="AM12" s="48"/>
-      <c r="AN12" s="48"/>
-      <c r="AO12" s="48"/>
-      <c r="AP12" s="48"/>
-      <c r="AQ12" s="48"/>
-      <c r="AR12" s="48"/>
-      <c r="AS12" s="48"/>
-      <c r="AT12" s="48"/>
-      <c r="AU12" s="48"/>
-      <c r="AV12" s="48"/>
-      <c r="AW12" s="48"/>
-      <c r="AX12" s="48"/>
-      <c r="AY12" s="48"/>
-      <c r="AZ12" s="48"/>
-      <c r="BA12" s="48"/>
-      <c r="BB12" s="48"/>
-      <c r="BC12" s="48"/>
-      <c r="BD12" s="48"/>
-      <c r="BE12" s="48"/>
-      <c r="BF12" s="48"/>
-      <c r="BG12" s="48"/>
-      <c r="BH12" s="48"/>
-      <c r="BI12" s="48"/>
-      <c r="BJ12" s="48"/>
-      <c r="BK12" s="48"/>
-      <c r="BL12" s="48"/>
-      <c r="BM12" s="48"/>
-      <c r="BN12" s="48"/>
-      <c r="BO12" s="49"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="53"/>
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="53"/>
+      <c r="AJ12" s="53"/>
+      <c r="AK12" s="53"/>
+      <c r="AL12" s="53"/>
+      <c r="AM12" s="53"/>
+      <c r="AN12" s="53"/>
+      <c r="AO12" s="53"/>
+      <c r="AP12" s="53"/>
+      <c r="AQ12" s="53"/>
+      <c r="AR12" s="53"/>
+      <c r="AS12" s="53"/>
+      <c r="AT12" s="53"/>
+      <c r="AU12" s="53"/>
+      <c r="AV12" s="53"/>
+      <c r="AW12" s="53"/>
+      <c r="AX12" s="53"/>
+      <c r="AY12" s="53"/>
+      <c r="AZ12" s="53"/>
+      <c r="BA12" s="53"/>
+      <c r="BB12" s="53"/>
+      <c r="BC12" s="53"/>
+      <c r="BD12" s="53"/>
+      <c r="BE12" s="53"/>
+      <c r="BF12" s="53"/>
+      <c r="BG12" s="53"/>
+      <c r="BH12" s="53"/>
+      <c r="BI12" s="53"/>
+      <c r="BJ12" s="53"/>
+      <c r="BK12" s="53"/>
+      <c r="BL12" s="53"/>
+      <c r="BM12" s="53"/>
+      <c r="BN12" s="53"/>
+      <c r="BO12" s="54"/>
       <c r="BP12" s="2"/>
     </row>
     <row r="13" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A13" s="2"/>
       <c r="B13" s="18"/>
       <c r="C13" s="22"/>
-      <c r="D13" s="57" t="s">
-        <v>36</v>
+      <c r="D13" s="70" t="s">
+        <v>32</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="67" t="s">
-        <v>37</v>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="72" t="s">
+        <v>33</v>
       </c>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="48"/>
-      <c r="AK13" s="48"/>
-      <c r="AL13" s="48"/>
-      <c r="AM13" s="48"/>
-      <c r="AN13" s="48"/>
-      <c r="AO13" s="48"/>
-      <c r="AP13" s="48"/>
-      <c r="AQ13" s="48"/>
-      <c r="AR13" s="48"/>
-      <c r="AS13" s="48"/>
-      <c r="AT13" s="48"/>
-      <c r="AU13" s="48"/>
-      <c r="AV13" s="48"/>
-      <c r="AW13" s="48"/>
-      <c r="AX13" s="48"/>
-      <c r="AY13" s="48"/>
-      <c r="AZ13" s="48"/>
-      <c r="BA13" s="48"/>
-      <c r="BB13" s="48"/>
-      <c r="BC13" s="48"/>
-      <c r="BD13" s="48"/>
-      <c r="BE13" s="48"/>
-      <c r="BF13" s="48"/>
-      <c r="BG13" s="48"/>
-      <c r="BH13" s="48"/>
-      <c r="BI13" s="48"/>
-      <c r="BJ13" s="48"/>
-      <c r="BK13" s="48"/>
-      <c r="BL13" s="48"/>
-      <c r="BM13" s="48"/>
-      <c r="BN13" s="48"/>
-      <c r="BO13" s="49"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53"/>
+      <c r="AE13" s="53"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="53"/>
+      <c r="AJ13" s="53"/>
+      <c r="AK13" s="53"/>
+      <c r="AL13" s="53"/>
+      <c r="AM13" s="53"/>
+      <c r="AN13" s="53"/>
+      <c r="AO13" s="53"/>
+      <c r="AP13" s="53"/>
+      <c r="AQ13" s="53"/>
+      <c r="AR13" s="53"/>
+      <c r="AS13" s="53"/>
+      <c r="AT13" s="53"/>
+      <c r="AU13" s="53"/>
+      <c r="AV13" s="53"/>
+      <c r="AW13" s="53"/>
+      <c r="AX13" s="53"/>
+      <c r="AY13" s="53"/>
+      <c r="AZ13" s="53"/>
+      <c r="BA13" s="53"/>
+      <c r="BB13" s="53"/>
+      <c r="BC13" s="53"/>
+      <c r="BD13" s="53"/>
+      <c r="BE13" s="53"/>
+      <c r="BF13" s="53"/>
+      <c r="BG13" s="53"/>
+      <c r="BH13" s="53"/>
+      <c r="BI13" s="53"/>
+      <c r="BJ13" s="53"/>
+      <c r="BK13" s="53"/>
+      <c r="BL13" s="53"/>
+      <c r="BM13" s="53"/>
+      <c r="BN13" s="53"/>
+      <c r="BO13" s="54"/>
       <c r="BP13" s="2"/>
     </row>
     <row r="14" spans="1:68" s="46" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A14" s="11"/>
       <c r="B14" s="36"/>
       <c r="C14" s="19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4856,83 +4845,83 @@
       <c r="A15" s="11"/>
       <c r="B15" s="36"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="57" t="s">
-        <v>85</v>
+      <c r="D15" s="70" t="s">
+        <v>81</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="67" t="s">
-        <v>86</v>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="72" t="s">
+        <v>82</v>
       </c>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="48"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="48"/>
-      <c r="AH15" s="48"/>
-      <c r="AI15" s="48"/>
-      <c r="AJ15" s="48"/>
-      <c r="AK15" s="48"/>
-      <c r="AL15" s="48"/>
-      <c r="AM15" s="48"/>
-      <c r="AN15" s="48"/>
-      <c r="AO15" s="48"/>
-      <c r="AP15" s="48"/>
-      <c r="AQ15" s="48"/>
-      <c r="AR15" s="48"/>
-      <c r="AS15" s="48"/>
-      <c r="AT15" s="48"/>
-      <c r="AU15" s="48"/>
-      <c r="AV15" s="48"/>
-      <c r="AW15" s="48"/>
-      <c r="AX15" s="48"/>
-      <c r="AY15" s="48"/>
-      <c r="AZ15" s="48"/>
-      <c r="BA15" s="48"/>
-      <c r="BB15" s="48"/>
-      <c r="BC15" s="48"/>
-      <c r="BD15" s="48"/>
-      <c r="BE15" s="48"/>
-      <c r="BF15" s="48"/>
-      <c r="BG15" s="48"/>
-      <c r="BH15" s="48"/>
-      <c r="BI15" s="48"/>
-      <c r="BJ15" s="48"/>
-      <c r="BK15" s="48"/>
-      <c r="BL15" s="48"/>
-      <c r="BM15" s="48"/>
-      <c r="BN15" s="48"/>
-      <c r="BO15" s="49"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="53"/>
+      <c r="AJ15" s="53"/>
+      <c r="AK15" s="53"/>
+      <c r="AL15" s="53"/>
+      <c r="AM15" s="53"/>
+      <c r="AN15" s="53"/>
+      <c r="AO15" s="53"/>
+      <c r="AP15" s="53"/>
+      <c r="AQ15" s="53"/>
+      <c r="AR15" s="53"/>
+      <c r="AS15" s="53"/>
+      <c r="AT15" s="53"/>
+      <c r="AU15" s="53"/>
+      <c r="AV15" s="53"/>
+      <c r="AW15" s="53"/>
+      <c r="AX15" s="53"/>
+      <c r="AY15" s="53"/>
+      <c r="AZ15" s="53"/>
+      <c r="BA15" s="53"/>
+      <c r="BB15" s="53"/>
+      <c r="BC15" s="53"/>
+      <c r="BD15" s="53"/>
+      <c r="BE15" s="53"/>
+      <c r="BF15" s="53"/>
+      <c r="BG15" s="53"/>
+      <c r="BH15" s="53"/>
+      <c r="BI15" s="53"/>
+      <c r="BJ15" s="53"/>
+      <c r="BK15" s="53"/>
+      <c r="BL15" s="53"/>
+      <c r="BM15" s="53"/>
+      <c r="BN15" s="53"/>
+      <c r="BO15" s="54"/>
       <c r="BP15" s="11"/>
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="53" t="s">
-        <v>38</v>
+      <c r="B16" s="85" t="s">
+        <v>34</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
@@ -5001,90 +4990,90 @@
     <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A17" s="2"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="50" t="s">
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="50" t="s">
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="49"/>
-      <c r="AE17" s="68" t="s">
-        <v>25</v>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="83" t="s">
+        <v>22</v>
       </c>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="49"/>
+      <c r="AF17" s="53"/>
+      <c r="AG17" s="54"/>
       <c r="AH17" s="28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AI17" s="28"/>
       <c r="AJ17" s="28"/>
-      <c r="AK17" s="50" t="s">
-        <v>40</v>
+      <c r="AK17" s="55" t="s">
+        <v>36</v>
       </c>
-      <c r="AL17" s="48"/>
-      <c r="AM17" s="48"/>
-      <c r="AN17" s="48"/>
-      <c r="AO17" s="48"/>
-      <c r="AP17" s="48"/>
-      <c r="AQ17" s="48"/>
-      <c r="AR17" s="48"/>
-      <c r="AS17" s="48"/>
-      <c r="AT17" s="48"/>
-      <c r="AU17" s="48"/>
-      <c r="AV17" s="48"/>
-      <c r="AW17" s="48"/>
-      <c r="AX17" s="48"/>
-      <c r="AY17" s="48"/>
-      <c r="AZ17" s="48"/>
-      <c r="BA17" s="48"/>
-      <c r="BB17" s="48"/>
-      <c r="BC17" s="48"/>
-      <c r="BD17" s="48"/>
-      <c r="BE17" s="48"/>
-      <c r="BF17" s="48"/>
-      <c r="BG17" s="48"/>
-      <c r="BH17" s="48"/>
-      <c r="BI17" s="48"/>
-      <c r="BJ17" s="48"/>
-      <c r="BK17" s="48"/>
-      <c r="BL17" s="48"/>
-      <c r="BM17" s="48"/>
-      <c r="BN17" s="48"/>
-      <c r="BO17" s="49"/>
+      <c r="AL17" s="53"/>
+      <c r="AM17" s="53"/>
+      <c r="AN17" s="53"/>
+      <c r="AO17" s="53"/>
+      <c r="AP17" s="53"/>
+      <c r="AQ17" s="53"/>
+      <c r="AR17" s="53"/>
+      <c r="AS17" s="53"/>
+      <c r="AT17" s="53"/>
+      <c r="AU17" s="53"/>
+      <c r="AV17" s="53"/>
+      <c r="AW17" s="53"/>
+      <c r="AX17" s="53"/>
+      <c r="AY17" s="53"/>
+      <c r="AZ17" s="53"/>
+      <c r="BA17" s="53"/>
+      <c r="BB17" s="53"/>
+      <c r="BC17" s="53"/>
+      <c r="BD17" s="53"/>
+      <c r="BE17" s="53"/>
+      <c r="BF17" s="53"/>
+      <c r="BG17" s="53"/>
+      <c r="BH17" s="53"/>
+      <c r="BI17" s="53"/>
+      <c r="BJ17" s="53"/>
+      <c r="BK17" s="53"/>
+      <c r="BL17" s="53"/>
+      <c r="BM17" s="53"/>
+      <c r="BN17" s="53"/>
+      <c r="BO17" s="54"/>
       <c r="BP17" s="2"/>
     </row>
     <row r="18" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="29"/>
       <c r="C18" s="30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="31"/>
@@ -5099,218 +5088,218 @@
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
       <c r="P18" s="33"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="49"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="49"/>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="48"/>
-      <c r="AJ18" s="49"/>
-      <c r="AK18" s="56"/>
-      <c r="AL18" s="48"/>
-      <c r="AM18" s="48"/>
-      <c r="AN18" s="48"/>
-      <c r="AO18" s="48"/>
-      <c r="AP18" s="48"/>
-      <c r="AQ18" s="48"/>
-      <c r="AR18" s="48"/>
-      <c r="AS18" s="48"/>
-      <c r="AT18" s="48"/>
-      <c r="AU18" s="48"/>
-      <c r="AV18" s="48"/>
-      <c r="AW18" s="48"/>
-      <c r="AX18" s="48"/>
-      <c r="AY18" s="48"/>
-      <c r="AZ18" s="48"/>
-      <c r="BA18" s="48"/>
-      <c r="BB18" s="48"/>
-      <c r="BC18" s="48"/>
-      <c r="BD18" s="48"/>
-      <c r="BE18" s="48"/>
-      <c r="BF18" s="48"/>
-      <c r="BG18" s="48"/>
-      <c r="BH18" s="48"/>
-      <c r="BI18" s="48"/>
-      <c r="BJ18" s="48"/>
-      <c r="BK18" s="48"/>
-      <c r="BL18" s="48"/>
-      <c r="BM18" s="48"/>
-      <c r="BN18" s="48"/>
-      <c r="BO18" s="49"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="53"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="70"/>
+      <c r="AF18" s="53"/>
+      <c r="AG18" s="54"/>
+      <c r="AH18" s="82"/>
+      <c r="AI18" s="53"/>
+      <c r="AJ18" s="54"/>
+      <c r="AK18" s="82"/>
+      <c r="AL18" s="53"/>
+      <c r="AM18" s="53"/>
+      <c r="AN18" s="53"/>
+      <c r="AO18" s="53"/>
+      <c r="AP18" s="53"/>
+      <c r="AQ18" s="53"/>
+      <c r="AR18" s="53"/>
+      <c r="AS18" s="53"/>
+      <c r="AT18" s="53"/>
+      <c r="AU18" s="53"/>
+      <c r="AV18" s="53"/>
+      <c r="AW18" s="53"/>
+      <c r="AX18" s="53"/>
+      <c r="AY18" s="53"/>
+      <c r="AZ18" s="53"/>
+      <c r="BA18" s="53"/>
+      <c r="BB18" s="53"/>
+      <c r="BC18" s="53"/>
+      <c r="BD18" s="53"/>
+      <c r="BE18" s="53"/>
+      <c r="BF18" s="53"/>
+      <c r="BG18" s="53"/>
+      <c r="BH18" s="53"/>
+      <c r="BI18" s="53"/>
+      <c r="BJ18" s="53"/>
+      <c r="BK18" s="53"/>
+      <c r="BL18" s="53"/>
+      <c r="BM18" s="53"/>
+      <c r="BN18" s="53"/>
+      <c r="BO18" s="54"/>
       <c r="BP18" s="2"/>
     </row>
     <row r="19" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A19" s="2"/>
       <c r="B19" s="29"/>
       <c r="C19" s="34"/>
-      <c r="D19" s="57" t="s">
-        <v>81</v>
+      <c r="D19" s="70" t="s">
+        <v>77</v>
       </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="55" t="s">
-        <v>97</v>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="84" t="s">
+        <v>93</v>
       </c>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="56" t="s">
-        <v>43</v>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="82" t="s">
+        <v>39</v>
       </c>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="49"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="49"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="48"/>
-      <c r="AJ19" s="49"/>
-      <c r="AK19" s="56"/>
-      <c r="AL19" s="48"/>
-      <c r="AM19" s="48"/>
-      <c r="AN19" s="48"/>
-      <c r="AO19" s="48"/>
-      <c r="AP19" s="48"/>
-      <c r="AQ19" s="48"/>
-      <c r="AR19" s="48"/>
-      <c r="AS19" s="48"/>
-      <c r="AT19" s="48"/>
-      <c r="AU19" s="48"/>
-      <c r="AV19" s="48"/>
-      <c r="AW19" s="48"/>
-      <c r="AX19" s="48"/>
-      <c r="AY19" s="48"/>
-      <c r="AZ19" s="48"/>
-      <c r="BA19" s="48"/>
-      <c r="BB19" s="48"/>
-      <c r="BC19" s="48"/>
-      <c r="BD19" s="48"/>
-      <c r="BE19" s="48"/>
-      <c r="BF19" s="48"/>
-      <c r="BG19" s="48"/>
-      <c r="BH19" s="48"/>
-      <c r="BI19" s="48"/>
-      <c r="BJ19" s="48"/>
-      <c r="BK19" s="48"/>
-      <c r="BL19" s="48"/>
-      <c r="BM19" s="48"/>
-      <c r="BN19" s="48"/>
-      <c r="BO19" s="49"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="53"/>
+      <c r="AB19" s="53"/>
+      <c r="AC19" s="53"/>
+      <c r="AD19" s="54"/>
+      <c r="AE19" s="70"/>
+      <c r="AF19" s="53"/>
+      <c r="AG19" s="54"/>
+      <c r="AH19" s="82"/>
+      <c r="AI19" s="53"/>
+      <c r="AJ19" s="54"/>
+      <c r="AK19" s="82"/>
+      <c r="AL19" s="53"/>
+      <c r="AM19" s="53"/>
+      <c r="AN19" s="53"/>
+      <c r="AO19" s="53"/>
+      <c r="AP19" s="53"/>
+      <c r="AQ19" s="53"/>
+      <c r="AR19" s="53"/>
+      <c r="AS19" s="53"/>
+      <c r="AT19" s="53"/>
+      <c r="AU19" s="53"/>
+      <c r="AV19" s="53"/>
+      <c r="AW19" s="53"/>
+      <c r="AX19" s="53"/>
+      <c r="AY19" s="53"/>
+      <c r="AZ19" s="53"/>
+      <c r="BA19" s="53"/>
+      <c r="BB19" s="53"/>
+      <c r="BC19" s="53"/>
+      <c r="BD19" s="53"/>
+      <c r="BE19" s="53"/>
+      <c r="BF19" s="53"/>
+      <c r="BG19" s="53"/>
+      <c r="BH19" s="53"/>
+      <c r="BI19" s="53"/>
+      <c r="BJ19" s="53"/>
+      <c r="BK19" s="53"/>
+      <c r="BL19" s="53"/>
+      <c r="BM19" s="53"/>
+      <c r="BN19" s="53"/>
+      <c r="BO19" s="54"/>
       <c r="BP19" s="2"/>
     </row>
     <row r="20" spans="1:68" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A20" s="2"/>
       <c r="B20" s="29"/>
       <c r="C20" s="35"/>
-      <c r="D20" s="57" t="s">
-        <v>82</v>
+      <c r="D20" s="70" t="s">
+        <v>78</v>
       </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="55" t="s">
-        <v>59</v>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="84" t="s">
+        <v>55</v>
       </c>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="56" t="s">
-        <v>43</v>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="82" t="s">
+        <v>39</v>
       </c>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="49"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="49"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="49"/>
-      <c r="AK20" s="56"/>
-      <c r="AL20" s="48"/>
-      <c r="AM20" s="48"/>
-      <c r="AN20" s="48"/>
-      <c r="AO20" s="48"/>
-      <c r="AP20" s="48"/>
-      <c r="AQ20" s="48"/>
-      <c r="AR20" s="48"/>
-      <c r="AS20" s="48"/>
-      <c r="AT20" s="48"/>
-      <c r="AU20" s="48"/>
-      <c r="AV20" s="48"/>
-      <c r="AW20" s="48"/>
-      <c r="AX20" s="48"/>
-      <c r="AY20" s="48"/>
-      <c r="AZ20" s="48"/>
-      <c r="BA20" s="48"/>
-      <c r="BB20" s="48"/>
-      <c r="BC20" s="48"/>
-      <c r="BD20" s="48"/>
-      <c r="BE20" s="48"/>
-      <c r="BF20" s="48"/>
-      <c r="BG20" s="48"/>
-      <c r="BH20" s="48"/>
-      <c r="BI20" s="48"/>
-      <c r="BJ20" s="48"/>
-      <c r="BK20" s="48"/>
-      <c r="BL20" s="48"/>
-      <c r="BM20" s="48"/>
-      <c r="BN20" s="48"/>
-      <c r="BO20" s="49"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="70"/>
+      <c r="AF20" s="53"/>
+      <c r="AG20" s="54"/>
+      <c r="AH20" s="82"/>
+      <c r="AI20" s="53"/>
+      <c r="AJ20" s="54"/>
+      <c r="AK20" s="82"/>
+      <c r="AL20" s="53"/>
+      <c r="AM20" s="53"/>
+      <c r="AN20" s="53"/>
+      <c r="AO20" s="53"/>
+      <c r="AP20" s="53"/>
+      <c r="AQ20" s="53"/>
+      <c r="AR20" s="53"/>
+      <c r="AS20" s="53"/>
+      <c r="AT20" s="53"/>
+      <c r="AU20" s="53"/>
+      <c r="AV20" s="53"/>
+      <c r="AW20" s="53"/>
+      <c r="AX20" s="53"/>
+      <c r="AY20" s="53"/>
+      <c r="AZ20" s="53"/>
+      <c r="BA20" s="53"/>
+      <c r="BB20" s="53"/>
+      <c r="BC20" s="53"/>
+      <c r="BD20" s="53"/>
+      <c r="BE20" s="53"/>
+      <c r="BF20" s="53"/>
+      <c r="BG20" s="53"/>
+      <c r="BH20" s="53"/>
+      <c r="BI20" s="53"/>
+      <c r="BJ20" s="53"/>
+      <c r="BK20" s="53"/>
+      <c r="BL20" s="53"/>
+      <c r="BM20" s="53"/>
+      <c r="BN20" s="53"/>
+      <c r="BO20" s="54"/>
       <c r="BP20" s="2"/>
     </row>
     <row r="21" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="53" t="s">
-        <v>41</v>
+      <c r="B21" s="85" t="s">
+        <v>37</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -5379,153 +5368,153 @@
     <row r="22" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A22" s="2"/>
       <c r="B22" s="27"/>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="50" t="s">
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="50" t="s">
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="49"/>
-      <c r="AE22" s="68" t="s">
-        <v>25</v>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="53"/>
+      <c r="AC22" s="53"/>
+      <c r="AD22" s="54"/>
+      <c r="AE22" s="83" t="s">
+        <v>22</v>
       </c>
-      <c r="AF22" s="48"/>
-      <c r="AG22" s="49"/>
+      <c r="AF22" s="53"/>
+      <c r="AG22" s="54"/>
       <c r="AH22" s="28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AI22" s="28"/>
       <c r="AJ22" s="28"/>
-      <c r="AK22" s="50" t="s">
-        <v>40</v>
+      <c r="AK22" s="55" t="s">
+        <v>36</v>
       </c>
-      <c r="AL22" s="48"/>
-      <c r="AM22" s="48"/>
-      <c r="AN22" s="48"/>
-      <c r="AO22" s="48"/>
-      <c r="AP22" s="48"/>
-      <c r="AQ22" s="48"/>
-      <c r="AR22" s="48"/>
-      <c r="AS22" s="48"/>
-      <c r="AT22" s="48"/>
-      <c r="AU22" s="48"/>
-      <c r="AV22" s="48"/>
-      <c r="AW22" s="48"/>
-      <c r="AX22" s="48"/>
-      <c r="AY22" s="48"/>
-      <c r="AZ22" s="48"/>
-      <c r="BA22" s="48"/>
-      <c r="BB22" s="48"/>
-      <c r="BC22" s="48"/>
-      <c r="BD22" s="48"/>
-      <c r="BE22" s="48"/>
-      <c r="BF22" s="48"/>
-      <c r="BG22" s="48"/>
-      <c r="BH22" s="48"/>
-      <c r="BI22" s="48"/>
-      <c r="BJ22" s="48"/>
-      <c r="BK22" s="48"/>
-      <c r="BL22" s="48"/>
-      <c r="BM22" s="48"/>
-      <c r="BN22" s="48"/>
-      <c r="BO22" s="49"/>
+      <c r="AL22" s="53"/>
+      <c r="AM22" s="53"/>
+      <c r="AN22" s="53"/>
+      <c r="AO22" s="53"/>
+      <c r="AP22" s="53"/>
+      <c r="AQ22" s="53"/>
+      <c r="AR22" s="53"/>
+      <c r="AS22" s="53"/>
+      <c r="AT22" s="53"/>
+      <c r="AU22" s="53"/>
+      <c r="AV22" s="53"/>
+      <c r="AW22" s="53"/>
+      <c r="AX22" s="53"/>
+      <c r="AY22" s="53"/>
+      <c r="AZ22" s="53"/>
+      <c r="BA22" s="53"/>
+      <c r="BB22" s="53"/>
+      <c r="BC22" s="53"/>
+      <c r="BD22" s="53"/>
+      <c r="BE22" s="53"/>
+      <c r="BF22" s="53"/>
+      <c r="BG22" s="53"/>
+      <c r="BH22" s="53"/>
+      <c r="BI22" s="53"/>
+      <c r="BJ22" s="53"/>
+      <c r="BK22" s="53"/>
+      <c r="BL22" s="53"/>
+      <c r="BM22" s="53"/>
+      <c r="BN22" s="53"/>
+      <c r="BO22" s="54"/>
       <c r="BP22" s="2"/>
     </row>
     <row r="23" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="48"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="48"/>
-      <c r="AD23" s="49"/>
-      <c r="AE23" s="57"/>
-      <c r="AF23" s="48"/>
-      <c r="AG23" s="49"/>
-      <c r="AH23" s="56"/>
-      <c r="AI23" s="48"/>
-      <c r="AJ23" s="49"/>
-      <c r="AK23" s="56"/>
-      <c r="AL23" s="48"/>
-      <c r="AM23" s="48"/>
-      <c r="AN23" s="48"/>
-      <c r="AO23" s="48"/>
-      <c r="AP23" s="48"/>
-      <c r="AQ23" s="48"/>
-      <c r="AR23" s="48"/>
-      <c r="AS23" s="48"/>
-      <c r="AT23" s="48"/>
-      <c r="AU23" s="48"/>
-      <c r="AV23" s="48"/>
-      <c r="AW23" s="48"/>
-      <c r="AX23" s="48"/>
-      <c r="AY23" s="48"/>
-      <c r="AZ23" s="48"/>
-      <c r="BA23" s="48"/>
-      <c r="BB23" s="48"/>
-      <c r="BC23" s="48"/>
-      <c r="BD23" s="48"/>
-      <c r="BE23" s="48"/>
-      <c r="BF23" s="48"/>
-      <c r="BG23" s="48"/>
-      <c r="BH23" s="48"/>
-      <c r="BI23" s="48"/>
-      <c r="BJ23" s="48"/>
-      <c r="BK23" s="48"/>
-      <c r="BL23" s="48"/>
-      <c r="BM23" s="48"/>
-      <c r="BN23" s="48"/>
-      <c r="BO23" s="49"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="82"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="53"/>
+      <c r="AC23" s="53"/>
+      <c r="AD23" s="54"/>
+      <c r="AE23" s="70"/>
+      <c r="AF23" s="53"/>
+      <c r="AG23" s="54"/>
+      <c r="AH23" s="82"/>
+      <c r="AI23" s="53"/>
+      <c r="AJ23" s="54"/>
+      <c r="AK23" s="82"/>
+      <c r="AL23" s="53"/>
+      <c r="AM23" s="53"/>
+      <c r="AN23" s="53"/>
+      <c r="AO23" s="53"/>
+      <c r="AP23" s="53"/>
+      <c r="AQ23" s="53"/>
+      <c r="AR23" s="53"/>
+      <c r="AS23" s="53"/>
+      <c r="AT23" s="53"/>
+      <c r="AU23" s="53"/>
+      <c r="AV23" s="53"/>
+      <c r="AW23" s="53"/>
+      <c r="AX23" s="53"/>
+      <c r="AY23" s="53"/>
+      <c r="AZ23" s="53"/>
+      <c r="BA23" s="53"/>
+      <c r="BB23" s="53"/>
+      <c r="BC23" s="53"/>
+      <c r="BD23" s="53"/>
+      <c r="BE23" s="53"/>
+      <c r="BF23" s="53"/>
+      <c r="BG23" s="53"/>
+      <c r="BH23" s="53"/>
+      <c r="BI23" s="53"/>
+      <c r="BJ23" s="53"/>
+      <c r="BK23" s="53"/>
+      <c r="BL23" s="53"/>
+      <c r="BM23" s="53"/>
+      <c r="BN23" s="53"/>
+      <c r="BO23" s="54"/>
       <c r="BP23" s="2"/>
     </row>
     <row r="24" spans="1:68" ht="16.5">
@@ -5599,8 +5588,9 @@
       <c r="BP24" s="2"/>
     </row>
     <row r="25" spans="1:68" ht="16.5">
-      <c r="A25" s="12" t="s">
-        <v>9</v>
+      <c r="A25" s="12" t="str">
+        <f ca="1">LEFT($A$1, 4)&amp;"2.処理詳細"</f>
+        <v>2.1.2.処理詳細</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -5742,318 +5732,318 @@
     </row>
     <row r="27" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A27" s="7"/>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="58" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="60" t="s">
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="54"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="54"/>
-      <c r="AA27" s="54"/>
-      <c r="AB27" s="61"/>
-      <c r="AC27" s="60" t="s">
+      <c r="AD27" s="61"/>
+      <c r="AE27" s="61"/>
+      <c r="AF27" s="61"/>
+      <c r="AG27" s="61"/>
+      <c r="AH27" s="61"/>
+      <c r="AI27" s="61"/>
+      <c r="AJ27" s="61"/>
+      <c r="AK27" s="62"/>
+      <c r="AL27" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="AD27" s="54"/>
-      <c r="AE27" s="54"/>
-      <c r="AF27" s="54"/>
-      <c r="AG27" s="54"/>
-      <c r="AH27" s="54"/>
-      <c r="AI27" s="54"/>
-      <c r="AJ27" s="54"/>
-      <c r="AK27" s="61"/>
-      <c r="AL27" s="58" t="s">
+      <c r="AM27" s="53"/>
+      <c r="AN27" s="53"/>
+      <c r="AO27" s="53"/>
+      <c r="AP27" s="53"/>
+      <c r="AQ27" s="53"/>
+      <c r="AR27" s="53"/>
+      <c r="AS27" s="53"/>
+      <c r="AT27" s="53"/>
+      <c r="AU27" s="53"/>
+      <c r="AV27" s="53"/>
+      <c r="AW27" s="53"/>
+      <c r="AX27" s="53"/>
+      <c r="AY27" s="53"/>
+      <c r="AZ27" s="53"/>
+      <c r="BA27" s="53"/>
+      <c r="BB27" s="53"/>
+      <c r="BC27" s="53"/>
+      <c r="BD27" s="53"/>
+      <c r="BE27" s="53"/>
+      <c r="BF27" s="53"/>
+      <c r="BG27" s="53"/>
+      <c r="BH27" s="53"/>
+      <c r="BI27" s="53"/>
+      <c r="BJ27" s="53"/>
+      <c r="BK27" s="53"/>
+      <c r="BL27" s="53"/>
+      <c r="BM27" s="53"/>
+      <c r="BN27" s="53"/>
+      <c r="BO27" s="54"/>
+      <c r="BP27" s="2"/>
+    </row>
+    <row r="28" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="65"/>
+      <c r="AC28" s="96"/>
+      <c r="AD28" s="69"/>
+      <c r="AE28" s="69"/>
+      <c r="AF28" s="69"/>
+      <c r="AG28" s="69"/>
+      <c r="AH28" s="69"/>
+      <c r="AI28" s="69"/>
+      <c r="AJ28" s="69"/>
+      <c r="AK28" s="59"/>
+      <c r="AL28" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="AM27" s="48"/>
-      <c r="AN27" s="48"/>
-      <c r="AO27" s="48"/>
-      <c r="AP27" s="48"/>
-      <c r="AQ27" s="48"/>
-      <c r="AR27" s="48"/>
-      <c r="AS27" s="48"/>
-      <c r="AT27" s="48"/>
-      <c r="AU27" s="48"/>
-      <c r="AV27" s="48"/>
-      <c r="AW27" s="48"/>
-      <c r="AX27" s="48"/>
-      <c r="AY27" s="48"/>
-      <c r="AZ27" s="48"/>
-      <c r="BA27" s="48"/>
-      <c r="BB27" s="48"/>
-      <c r="BC27" s="48"/>
-      <c r="BD27" s="48"/>
-      <c r="BE27" s="48"/>
-      <c r="BF27" s="48"/>
-      <c r="BG27" s="48"/>
-      <c r="BH27" s="48"/>
-      <c r="BI27" s="48"/>
-      <c r="BJ27" s="48"/>
-      <c r="BK27" s="48"/>
-      <c r="BL27" s="48"/>
-      <c r="BM27" s="48"/>
-      <c r="BN27" s="48"/>
-      <c r="BO27" s="49"/>
-      <c r="BP27" s="2"/>
-    </row>
-    <row r="28" spans="1:68" ht="16.5" outlineLevel="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="79"/>
-      <c r="S28" s="79"/>
-      <c r="T28" s="79"/>
-      <c r="U28" s="79"/>
-      <c r="V28" s="79"/>
-      <c r="W28" s="79"/>
-      <c r="X28" s="79"/>
-      <c r="Y28" s="79"/>
-      <c r="Z28" s="79"/>
-      <c r="AA28" s="79"/>
-      <c r="AB28" s="80"/>
-      <c r="AC28" s="62"/>
-      <c r="AD28" s="63"/>
-      <c r="AE28" s="63"/>
-      <c r="AF28" s="63"/>
-      <c r="AG28" s="63"/>
-      <c r="AH28" s="63"/>
-      <c r="AI28" s="63"/>
-      <c r="AJ28" s="63"/>
-      <c r="AK28" s="64"/>
-      <c r="AL28" s="59" t="s">
+      <c r="AM28" s="53"/>
+      <c r="AN28" s="53"/>
+      <c r="AO28" s="53"/>
+      <c r="AP28" s="53"/>
+      <c r="AQ28" s="53"/>
+      <c r="AR28" s="53"/>
+      <c r="AS28" s="53"/>
+      <c r="AT28" s="54"/>
+      <c r="AU28" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="AM28" s="48"/>
-      <c r="AN28" s="48"/>
-      <c r="AO28" s="48"/>
-      <c r="AP28" s="48"/>
-      <c r="AQ28" s="48"/>
-      <c r="AR28" s="48"/>
-      <c r="AS28" s="48"/>
-      <c r="AT28" s="49"/>
-      <c r="AU28" s="59" t="s">
+      <c r="AV28" s="53"/>
+      <c r="AW28" s="53"/>
+      <c r="AX28" s="53"/>
+      <c r="AY28" s="54"/>
+      <c r="AZ28" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="AV28" s="48"/>
-      <c r="AW28" s="48"/>
-      <c r="AX28" s="48"/>
-      <c r="AY28" s="49"/>
-      <c r="AZ28" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="BA28" s="48"/>
-      <c r="BB28" s="48"/>
-      <c r="BC28" s="48"/>
-      <c r="BD28" s="48"/>
-      <c r="BE28" s="48"/>
-      <c r="BF28" s="48"/>
-      <c r="BG28" s="48"/>
-      <c r="BH28" s="48"/>
-      <c r="BI28" s="48"/>
-      <c r="BJ28" s="48"/>
-      <c r="BK28" s="48"/>
-      <c r="BL28" s="48"/>
-      <c r="BM28" s="48"/>
-      <c r="BN28" s="48"/>
-      <c r="BO28" s="49"/>
+      <c r="BA28" s="53"/>
+      <c r="BB28" s="53"/>
+      <c r="BC28" s="53"/>
+      <c r="BD28" s="53"/>
+      <c r="BE28" s="53"/>
+      <c r="BF28" s="53"/>
+      <c r="BG28" s="53"/>
+      <c r="BH28" s="53"/>
+      <c r="BI28" s="53"/>
+      <c r="BJ28" s="53"/>
+      <c r="BK28" s="53"/>
+      <c r="BL28" s="53"/>
+      <c r="BM28" s="53"/>
+      <c r="BN28" s="53"/>
+      <c r="BO28" s="54"/>
       <c r="BP28" s="2"/>
     </row>
     <row r="29" spans="1:68" s="46" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A29" s="7"/>
-      <c r="B29" s="87">
+      <c r="B29" s="51">
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C29" s="81" t="s">
-        <v>92</v>
+      <c r="C29" s="74" t="s">
+        <v>88</v>
       </c>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="82"/>
-      <c r="T29" s="82"/>
-      <c r="U29" s="82"/>
-      <c r="V29" s="82"/>
-      <c r="W29" s="82"/>
-      <c r="X29" s="82"/>
-      <c r="Y29" s="82"/>
-      <c r="Z29" s="82"/>
-      <c r="AA29" s="82"/>
-      <c r="AB29" s="83"/>
-      <c r="AC29" s="67" t="s">
-        <v>93</v>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="75"/>
+      <c r="U29" s="75"/>
+      <c r="V29" s="75"/>
+      <c r="W29" s="75"/>
+      <c r="X29" s="75"/>
+      <c r="Y29" s="75"/>
+      <c r="Z29" s="75"/>
+      <c r="AA29" s="75"/>
+      <c r="AB29" s="76"/>
+      <c r="AC29" s="72" t="s">
+        <v>89</v>
       </c>
-      <c r="AD29" s="48"/>
-      <c r="AE29" s="48"/>
-      <c r="AF29" s="48"/>
-      <c r="AG29" s="48"/>
-      <c r="AH29" s="48"/>
-      <c r="AI29" s="48"/>
-      <c r="AJ29" s="48"/>
-      <c r="AK29" s="49"/>
-      <c r="AL29" s="65" t="s">
-        <v>94</v>
+      <c r="AD29" s="53"/>
+      <c r="AE29" s="53"/>
+      <c r="AF29" s="53"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="53"/>
+      <c r="AJ29" s="53"/>
+      <c r="AK29" s="54"/>
+      <c r="AL29" s="88" t="s">
+        <v>90</v>
       </c>
-      <c r="AM29" s="48"/>
-      <c r="AN29" s="48"/>
-      <c r="AO29" s="48"/>
-      <c r="AP29" s="48"/>
-      <c r="AQ29" s="48"/>
-      <c r="AR29" s="48"/>
-      <c r="AS29" s="48"/>
-      <c r="AT29" s="49"/>
-      <c r="AU29" s="65"/>
-      <c r="AV29" s="48"/>
-      <c r="AW29" s="48"/>
-      <c r="AX29" s="48"/>
-      <c r="AY29" s="49"/>
-      <c r="AZ29" s="66" t="s">
-        <v>95</v>
+      <c r="AM29" s="53"/>
+      <c r="AN29" s="53"/>
+      <c r="AO29" s="53"/>
+      <c r="AP29" s="53"/>
+      <c r="AQ29" s="53"/>
+      <c r="AR29" s="53"/>
+      <c r="AS29" s="53"/>
+      <c r="AT29" s="54"/>
+      <c r="AU29" s="88"/>
+      <c r="AV29" s="53"/>
+      <c r="AW29" s="53"/>
+      <c r="AX29" s="53"/>
+      <c r="AY29" s="54"/>
+      <c r="AZ29" s="89" t="s">
+        <v>91</v>
       </c>
-      <c r="BA29" s="48"/>
-      <c r="BB29" s="48"/>
-      <c r="BC29" s="48"/>
-      <c r="BD29" s="48"/>
-      <c r="BE29" s="48"/>
-      <c r="BF29" s="48"/>
-      <c r="BG29" s="48"/>
-      <c r="BH29" s="48"/>
-      <c r="BI29" s="48"/>
-      <c r="BJ29" s="48"/>
-      <c r="BK29" s="48"/>
-      <c r="BL29" s="48"/>
-      <c r="BM29" s="48"/>
-      <c r="BN29" s="48"/>
-      <c r="BO29" s="49"/>
+      <c r="BA29" s="53"/>
+      <c r="BB29" s="53"/>
+      <c r="BC29" s="53"/>
+      <c r="BD29" s="53"/>
+      <c r="BE29" s="53"/>
+      <c r="BF29" s="53"/>
+      <c r="BG29" s="53"/>
+      <c r="BH29" s="53"/>
+      <c r="BI29" s="53"/>
+      <c r="BJ29" s="53"/>
+      <c r="BK29" s="53"/>
+      <c r="BL29" s="53"/>
+      <c r="BM29" s="53"/>
+      <c r="BN29" s="53"/>
+      <c r="BO29" s="54"/>
       <c r="BP29" s="11"/>
     </row>
     <row r="30" spans="1:68" s="46" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A30" s="7"/>
-      <c r="B30" s="87">
+      <c r="B30" s="51">
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C30" s="84"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="85"/>
-      <c r="R30" s="85"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="85"/>
-      <c r="U30" s="85"/>
-      <c r="V30" s="85"/>
-      <c r="W30" s="85"/>
-      <c r="X30" s="85"/>
-      <c r="Y30" s="85"/>
-      <c r="Z30" s="85"/>
-      <c r="AA30" s="85"/>
-      <c r="AB30" s="86"/>
-      <c r="AC30" s="67" t="s">
-        <v>96</v>
+      <c r="C30" s="78"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="79"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="79"/>
+      <c r="Z30" s="79"/>
+      <c r="AA30" s="79"/>
+      <c r="AB30" s="80"/>
+      <c r="AC30" s="72" t="s">
+        <v>92</v>
       </c>
-      <c r="AD30" s="48"/>
-      <c r="AE30" s="48"/>
-      <c r="AF30" s="48"/>
-      <c r="AG30" s="48"/>
-      <c r="AH30" s="48"/>
-      <c r="AI30" s="48"/>
-      <c r="AJ30" s="48"/>
-      <c r="AK30" s="49"/>
-      <c r="AL30" s="65" t="s">
-        <v>104</v>
+      <c r="AD30" s="53"/>
+      <c r="AE30" s="53"/>
+      <c r="AF30" s="53"/>
+      <c r="AG30" s="53"/>
+      <c r="AH30" s="53"/>
+      <c r="AI30" s="53"/>
+      <c r="AJ30" s="53"/>
+      <c r="AK30" s="54"/>
+      <c r="AL30" s="88" t="s">
+        <v>100</v>
       </c>
-      <c r="AM30" s="48"/>
-      <c r="AN30" s="48"/>
-      <c r="AO30" s="48"/>
-      <c r="AP30" s="48"/>
-      <c r="AQ30" s="48"/>
-      <c r="AR30" s="48"/>
-      <c r="AS30" s="48"/>
-      <c r="AT30" s="49"/>
-      <c r="AU30" s="65"/>
-      <c r="AV30" s="48"/>
-      <c r="AW30" s="48"/>
-      <c r="AX30" s="48"/>
-      <c r="AY30" s="49"/>
-      <c r="AZ30" s="66" t="s">
-        <v>98</v>
+      <c r="AM30" s="53"/>
+      <c r="AN30" s="53"/>
+      <c r="AO30" s="53"/>
+      <c r="AP30" s="53"/>
+      <c r="AQ30" s="53"/>
+      <c r="AR30" s="53"/>
+      <c r="AS30" s="53"/>
+      <c r="AT30" s="54"/>
+      <c r="AU30" s="88"/>
+      <c r="AV30" s="53"/>
+      <c r="AW30" s="53"/>
+      <c r="AX30" s="53"/>
+      <c r="AY30" s="54"/>
+      <c r="AZ30" s="89" t="s">
+        <v>94</v>
       </c>
-      <c r="BA30" s="48"/>
-      <c r="BB30" s="48"/>
-      <c r="BC30" s="48"/>
-      <c r="BD30" s="48"/>
-      <c r="BE30" s="48"/>
-      <c r="BF30" s="48"/>
-      <c r="BG30" s="48"/>
-      <c r="BH30" s="48"/>
-      <c r="BI30" s="48"/>
-      <c r="BJ30" s="48"/>
-      <c r="BK30" s="48"/>
-      <c r="BL30" s="48"/>
-      <c r="BM30" s="48"/>
-      <c r="BN30" s="48"/>
-      <c r="BO30" s="49"/>
+      <c r="BA30" s="53"/>
+      <c r="BB30" s="53"/>
+      <c r="BC30" s="53"/>
+      <c r="BD30" s="53"/>
+      <c r="BE30" s="53"/>
+      <c r="BF30" s="53"/>
+      <c r="BG30" s="53"/>
+      <c r="BH30" s="53"/>
+      <c r="BI30" s="53"/>
+      <c r="BJ30" s="53"/>
+      <c r="BK30" s="53"/>
+      <c r="BL30" s="53"/>
+      <c r="BM30" s="53"/>
+      <c r="BN30" s="53"/>
+      <c r="BO30" s="54"/>
       <c r="BP30" s="11"/>
     </row>
     <row r="31" spans="1:68" ht="16.5" outlineLevel="1">
@@ -6062,158 +6052,158 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C31" s="90" t="s">
-        <v>91</v>
+      <c r="C31" s="66" t="s">
+        <v>87</v>
       </c>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="70" t="s">
-        <v>90</v>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="68" t="s">
+        <v>86</v>
       </c>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="63"/>
-      <c r="T31" s="63"/>
-      <c r="U31" s="63"/>
-      <c r="V31" s="63"/>
-      <c r="W31" s="63"/>
-      <c r="X31" s="63"/>
-      <c r="Y31" s="63"/>
-      <c r="Z31" s="63"/>
-      <c r="AA31" s="63"/>
-      <c r="AB31" s="63"/>
-      <c r="AC31" s="57" t="s">
-        <v>99</v>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="69"/>
+      <c r="V31" s="69"/>
+      <c r="W31" s="69"/>
+      <c r="X31" s="69"/>
+      <c r="Y31" s="69"/>
+      <c r="Z31" s="69"/>
+      <c r="AA31" s="69"/>
+      <c r="AB31" s="69"/>
+      <c r="AC31" s="70" t="s">
+        <v>95</v>
       </c>
-      <c r="AD31" s="48"/>
-      <c r="AE31" s="48"/>
-      <c r="AF31" s="48"/>
-      <c r="AG31" s="48"/>
-      <c r="AH31" s="48"/>
-      <c r="AI31" s="48"/>
-      <c r="AJ31" s="48"/>
-      <c r="AK31" s="49"/>
-      <c r="AL31" s="65" t="s">
-        <v>100</v>
+      <c r="AD31" s="53"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="53"/>
+      <c r="AJ31" s="53"/>
+      <c r="AK31" s="54"/>
+      <c r="AL31" s="88" t="s">
+        <v>96</v>
       </c>
-      <c r="AM31" s="48"/>
-      <c r="AN31" s="48"/>
-      <c r="AO31" s="48"/>
-      <c r="AP31" s="48"/>
-      <c r="AQ31" s="48"/>
-      <c r="AR31" s="48"/>
-      <c r="AS31" s="48"/>
-      <c r="AT31" s="49"/>
-      <c r="AU31" s="65"/>
-      <c r="AV31" s="48"/>
-      <c r="AW31" s="48"/>
-      <c r="AX31" s="48"/>
-      <c r="AY31" s="49"/>
-      <c r="AZ31" s="66" t="s">
-        <v>101</v>
+      <c r="AM31" s="53"/>
+      <c r="AN31" s="53"/>
+      <c r="AO31" s="53"/>
+      <c r="AP31" s="53"/>
+      <c r="AQ31" s="53"/>
+      <c r="AR31" s="53"/>
+      <c r="AS31" s="53"/>
+      <c r="AT31" s="54"/>
+      <c r="AU31" s="88"/>
+      <c r="AV31" s="53"/>
+      <c r="AW31" s="53"/>
+      <c r="AX31" s="53"/>
+      <c r="AY31" s="54"/>
+      <c r="AZ31" s="89" t="s">
+        <v>97</v>
       </c>
-      <c r="BA31" s="48"/>
-      <c r="BB31" s="48"/>
-      <c r="BC31" s="48"/>
-      <c r="BD31" s="48"/>
-      <c r="BE31" s="48"/>
-      <c r="BF31" s="48"/>
-      <c r="BG31" s="48"/>
-      <c r="BH31" s="48"/>
-      <c r="BI31" s="48"/>
-      <c r="BJ31" s="48"/>
-      <c r="BK31" s="48"/>
-      <c r="BL31" s="48"/>
-      <c r="BM31" s="48"/>
-      <c r="BN31" s="48"/>
-      <c r="BO31" s="49"/>
+      <c r="BA31" s="53"/>
+      <c r="BB31" s="53"/>
+      <c r="BC31" s="53"/>
+      <c r="BD31" s="53"/>
+      <c r="BE31" s="53"/>
+      <c r="BF31" s="53"/>
+      <c r="BG31" s="53"/>
+      <c r="BH31" s="53"/>
+      <c r="BI31" s="53"/>
+      <c r="BJ31" s="53"/>
+      <c r="BK31" s="53"/>
+      <c r="BL31" s="53"/>
+      <c r="BM31" s="53"/>
+      <c r="BN31" s="53"/>
+      <c r="BO31" s="54"/>
       <c r="BP31" s="2"/>
     </row>
-    <row r="32" spans="1:68" s="75" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="32" spans="1:68" s="49" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A32" s="7"/>
       <c r="B32" s="44">
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C32" s="92" t="s">
-        <v>102</v>
+      <c r="C32" s="71" t="s">
+        <v>98</v>
       </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="57" t="s">
-        <v>103</v>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="70" t="s">
+        <v>99</v>
       </c>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="67"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="67"/>
-      <c r="T32" s="67"/>
-      <c r="U32" s="67"/>
-      <c r="V32" s="67"/>
-      <c r="W32" s="67"/>
-      <c r="X32" s="67"/>
-      <c r="Y32" s="67"/>
-      <c r="Z32" s="67"/>
-      <c r="AA32" s="67"/>
-      <c r="AB32" s="76"/>
-      <c r="AC32" s="57"/>
-      <c r="AD32" s="67"/>
-      <c r="AE32" s="67"/>
-      <c r="AF32" s="67"/>
-      <c r="AG32" s="67"/>
-      <c r="AH32" s="67"/>
-      <c r="AI32" s="67"/>
-      <c r="AJ32" s="67"/>
-      <c r="AK32" s="76"/>
-      <c r="AL32" s="65"/>
-      <c r="AM32" s="93"/>
-      <c r="AN32" s="93"/>
-      <c r="AO32" s="93"/>
-      <c r="AP32" s="93"/>
-      <c r="AQ32" s="93"/>
-      <c r="AR32" s="93"/>
-      <c r="AS32" s="93"/>
-      <c r="AT32" s="94"/>
-      <c r="AU32" s="65"/>
-      <c r="AV32" s="93"/>
-      <c r="AW32" s="93"/>
-      <c r="AX32" s="93"/>
-      <c r="AY32" s="94"/>
-      <c r="AZ32" s="66"/>
-      <c r="BA32" s="95"/>
-      <c r="BB32" s="95"/>
-      <c r="BC32" s="95"/>
-      <c r="BD32" s="95"/>
-      <c r="BE32" s="95"/>
-      <c r="BF32" s="95"/>
-      <c r="BG32" s="95"/>
-      <c r="BH32" s="95"/>
-      <c r="BI32" s="95"/>
-      <c r="BJ32" s="95"/>
-      <c r="BK32" s="95"/>
-      <c r="BL32" s="95"/>
-      <c r="BM32" s="95"/>
-      <c r="BN32" s="95"/>
-      <c r="BO32" s="96"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="72"/>
+      <c r="X32" s="72"/>
+      <c r="Y32" s="72"/>
+      <c r="Z32" s="72"/>
+      <c r="AA32" s="72"/>
+      <c r="AB32" s="73"/>
+      <c r="AC32" s="70"/>
+      <c r="AD32" s="72"/>
+      <c r="AE32" s="72"/>
+      <c r="AF32" s="72"/>
+      <c r="AG32" s="72"/>
+      <c r="AH32" s="72"/>
+      <c r="AI32" s="72"/>
+      <c r="AJ32" s="72"/>
+      <c r="AK32" s="73"/>
+      <c r="AL32" s="88"/>
+      <c r="AM32" s="90"/>
+      <c r="AN32" s="90"/>
+      <c r="AO32" s="90"/>
+      <c r="AP32" s="90"/>
+      <c r="AQ32" s="90"/>
+      <c r="AR32" s="90"/>
+      <c r="AS32" s="90"/>
+      <c r="AT32" s="91"/>
+      <c r="AU32" s="88"/>
+      <c r="AV32" s="90"/>
+      <c r="AW32" s="90"/>
+      <c r="AX32" s="90"/>
+      <c r="AY32" s="91"/>
+      <c r="AZ32" s="89"/>
+      <c r="BA32" s="92"/>
+      <c r="BB32" s="92"/>
+      <c r="BC32" s="92"/>
+      <c r="BD32" s="92"/>
+      <c r="BE32" s="92"/>
+      <c r="BF32" s="92"/>
+      <c r="BG32" s="92"/>
+      <c r="BH32" s="92"/>
+      <c r="BI32" s="92"/>
+      <c r="BJ32" s="92"/>
+      <c r="BK32" s="92"/>
+      <c r="BL32" s="92"/>
+      <c r="BM32" s="92"/>
+      <c r="BN32" s="92"/>
+      <c r="BO32" s="93"/>
       <c r="BP32" s="11"/>
     </row>
     <row r="33" spans="1:68" ht="16.5">
@@ -6287,8 +6277,9 @@
       <c r="BP33" s="2"/>
     </row>
     <row r="34" spans="1:68" ht="16.5">
-      <c r="A34" s="12" t="s">
-        <v>17</v>
+      <c r="A34" s="12" t="str">
+        <f ca="1">LEFT($A$1, 4)&amp;"3.DB処理"</f>
+        <v>2.1.3.DB処理</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -6431,7 +6422,7 @@
     <row r="36" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A36" s="2"/>
       <c r="B36" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -6504,7 +6495,7 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -6577,7 +6568,7 @@
       <c r="B38" s="2"/>
       <c r="C38" s="10"/>
       <c r="D38" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -6648,7 +6639,7 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -6721,7 +6712,7 @@
       <c r="B40" s="2"/>
       <c r="C40" s="10"/>
       <c r="D40" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -6792,7 +6783,7 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -6865,7 +6856,7 @@
       <c r="B42" s="2"/>
       <c r="C42" s="10"/>
       <c r="D42" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -7073,8 +7064,9 @@
       <c r="BP44" s="2"/>
     </row>
     <row r="45" spans="1:68" ht="16.5">
-      <c r="A45" s="12" t="s">
-        <v>23</v>
+      <c r="A45" s="12" t="str">
+        <f ca="1">LEFT($A$1, 4)&amp;"4.備考"</f>
+        <v>2.1.4.備考</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -7776,39 +7768,35 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:K28"/>
-    <mergeCell ref="L27:AB28"/>
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="L31:AB31"/>
-    <mergeCell ref="AC31:AK31"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="L32:AB32"/>
-    <mergeCell ref="AC32:AK32"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="L29:AB29"/>
-    <mergeCell ref="AC29:AK29"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="L30:AB30"/>
-    <mergeCell ref="AC30:AK30"/>
-    <mergeCell ref="C23:P23"/>
-    <mergeCell ref="AK19:BO19"/>
-    <mergeCell ref="AK20:BO20"/>
-    <mergeCell ref="Q22:W22"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="Q23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AK23:BO23"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AK22:BO22"/>
-    <mergeCell ref="AK18:BO18"/>
-    <mergeCell ref="C17:P17"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AL32:AT32"/>
+    <mergeCell ref="AU32:AY32"/>
+    <mergeCell ref="AZ32:BO32"/>
+    <mergeCell ref="AL27:BO27"/>
+    <mergeCell ref="AL28:AT28"/>
+    <mergeCell ref="AU28:AY28"/>
+    <mergeCell ref="AZ28:BO28"/>
+    <mergeCell ref="AL29:AT29"/>
+    <mergeCell ref="AU29:AY29"/>
+    <mergeCell ref="AZ29:BO29"/>
+    <mergeCell ref="AL30:AT30"/>
+    <mergeCell ref="AU30:AY30"/>
+    <mergeCell ref="AZ30:BO30"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BO10"/>
+    <mergeCell ref="AL31:AT31"/>
+    <mergeCell ref="AU31:AY31"/>
+    <mergeCell ref="AZ31:BO31"/>
+    <mergeCell ref="AC27:AK28"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="C22:P22"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="I15:BO15"/>
     <mergeCell ref="I13:BO13"/>
@@ -7825,38 +7813,42 @@
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="Q17:W17"/>
     <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="AK18:BO18"/>
+    <mergeCell ref="C17:P17"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
     <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BO10"/>
-    <mergeCell ref="AL31:AT31"/>
-    <mergeCell ref="AU31:AY31"/>
-    <mergeCell ref="AZ31:BO31"/>
-    <mergeCell ref="AL32:AT32"/>
-    <mergeCell ref="AU32:AY32"/>
-    <mergeCell ref="AZ32:BO32"/>
-    <mergeCell ref="AL27:BO27"/>
-    <mergeCell ref="AL28:AT28"/>
-    <mergeCell ref="AU28:AY28"/>
-    <mergeCell ref="AZ28:BO28"/>
-    <mergeCell ref="AC27:AK28"/>
-    <mergeCell ref="AL29:AT29"/>
-    <mergeCell ref="AU29:AY29"/>
-    <mergeCell ref="AZ29:BO29"/>
-    <mergeCell ref="AL30:AT30"/>
-    <mergeCell ref="AU30:AY30"/>
-    <mergeCell ref="AZ30:BO30"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="C22:P22"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="C23:P23"/>
+    <mergeCell ref="AK19:BO19"/>
+    <mergeCell ref="AK20:BO20"/>
+    <mergeCell ref="Q22:W22"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="Q23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="AK23:BO23"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AK22:BO22"/>
     <mergeCell ref="D20:P20"/>
     <mergeCell ref="D19:P19"/>
+    <mergeCell ref="AC31:AK31"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="L32:AB32"/>
+    <mergeCell ref="AC32:AK32"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L29:AB29"/>
+    <mergeCell ref="AC29:AK29"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="L30:AB30"/>
+    <mergeCell ref="AC30:AK30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:K28"/>
+    <mergeCell ref="L27:AB28"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="L31:AB31"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -7920,16 +7912,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E1" s="40"/>
       <c r="F1" s="40"/>
@@ -7939,16 +7931,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="39" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
@@ -7958,16 +7950,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="39" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
@@ -7977,14 +7969,14 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
@@ -7994,14 +7986,14 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="39" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
@@ -8011,10 +8003,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="41"/>
@@ -8027,7 +8019,7 @@
     <row r="7" spans="1:9">
       <c r="A7" s="41"/>
       <c r="B7" s="39" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="41"/>
@@ -8040,7 +8032,7 @@
     <row r="8" spans="1:9">
       <c r="A8" s="41"/>
       <c r="B8" s="39" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="41"/>
@@ -8053,7 +8045,7 @@
     <row r="9" spans="1:9">
       <c r="A9" s="41"/>
       <c r="B9" s="39" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="41"/>
@@ -8066,7 +8058,7 @@
     <row r="10" spans="1:9">
       <c r="A10" s="41"/>
       <c r="B10" s="39" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="41"/>
@@ -8079,7 +8071,7 @@
     <row r="11" spans="1:9">
       <c r="A11" s="41"/>
       <c r="B11" s="39" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="41"/>
@@ -8092,7 +8084,7 @@
     <row r="12" spans="1:9">
       <c r="A12" s="41"/>
       <c r="B12" s="41" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="41"/>
@@ -8105,7 +8097,7 @@
     <row r="13" spans="1:9">
       <c r="A13" s="41"/>
       <c r="B13" s="41" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="41"/>
@@ -8118,7 +8110,7 @@
     <row r="14" spans="1:9">
       <c r="A14" s="41"/>
       <c r="B14" s="39" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
@@ -8131,7 +8123,7 @@
     <row r="15" spans="1:9">
       <c r="A15" s="41"/>
       <c r="B15" s="39" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="41"/>
@@ -8144,7 +8136,7 @@
     <row r="16" spans="1:9">
       <c r="A16" s="41"/>
       <c r="B16" s="39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
@@ -8157,7 +8149,7 @@
     <row r="17" spans="1:9">
       <c r="A17" s="41"/>
       <c r="B17" s="39" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
@@ -8170,7 +8162,7 @@
     <row r="18" spans="1:9">
       <c r="A18" s="41"/>
       <c r="B18" s="39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C18" s="41"/>
       <c r="D18" s="41"/>
@@ -8183,7 +8175,7 @@
     <row r="19" spans="1:9">
       <c r="A19" s="41"/>
       <c r="B19" s="39" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="41"/>
@@ -8196,7 +8188,7 @@
     <row r="20" spans="1:9">
       <c r="A20" s="41"/>
       <c r="B20" s="39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
@@ -8209,7 +8201,7 @@
     <row r="21" spans="1:9">
       <c r="A21" s="41"/>
       <c r="B21" s="39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C21" s="41"/>
       <c r="D21" s="41"/>
@@ -8222,7 +8214,7 @@
     <row r="22" spans="1:9">
       <c r="A22" s="41"/>
       <c r="B22" s="39" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C22" s="41"/>
       <c r="D22" s="41"/>
@@ -8235,7 +8227,7 @@
     <row r="23" spans="1:9">
       <c r="A23" s="41"/>
       <c r="B23" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C23" s="41"/>
       <c r="D23" s="41"/>

--- a/ha-asset/01_design/05_rootapi/設計書_5.1.ログインAPI.xlsx
+++ b/ha-asset/01_design/05_rootapi/設計書_5.1.ログインAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\05_rootapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC246563-5F31-4F85-885F-B0F2D0C98A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7945F2-9685-45C7-B094-DDA4D0E976F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="1215" windowWidth="20205" windowHeight="14385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5055" yWindow="690" windowWidth="20580" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="102">
   <si>
     <t>更新日時</t>
   </si>
@@ -413,6 +413,10 @@
     <rPh sb="20" eb="22">
       <t>バアイ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>機能一覧シート最新化</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -857,7 +861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -983,6 +987,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1295,8 +1302,9 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1437,15 +1445,22 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2"/>
-      <c r="B5" s="39"/>
+      <c r="B5" s="45">
+        <v>45088</v>
+      </c>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
       <c r="E5" s="41"/>
-      <c r="F5" s="39"/>
+      <c r="F5" s="39">
+        <f>IF(B5="","",F4+0.01)</f>
+        <v>1.01</v>
+      </c>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
       <c r="I5" s="41"/>
-      <c r="J5" s="39"/>
+      <c r="J5" s="39" t="s">
+        <v>101</v>
+      </c>
       <c r="K5" s="40"/>
       <c r="L5" s="40"/>
       <c r="M5" s="40"/>
@@ -1470,7 +1485,10 @@
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
       <c r="E6" s="41"/>
-      <c r="F6" s="39"/>
+      <c r="F6" s="39" t="str">
+        <f t="shared" ref="F6:F25" si="0">IF(B6="","",F5+0.01)</f>
+        <v/>
+      </c>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" s="41"/>
@@ -1499,7 +1517,10 @@
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
       <c r="E7" s="41"/>
-      <c r="F7" s="39"/>
+      <c r="F7" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="41"/>
@@ -1528,7 +1549,10 @@
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
       <c r="E8" s="41"/>
-      <c r="F8" s="39"/>
+      <c r="F8" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="I8" s="41"/>
@@ -1557,7 +1581,10 @@
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="41"/>
-      <c r="F9" s="39"/>
+      <c r="F9" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
       <c r="I9" s="41"/>
@@ -1586,7 +1613,10 @@
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="41"/>
-      <c r="F10" s="39"/>
+      <c r="F10" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
       <c r="I10" s="41"/>
@@ -1615,7 +1645,10 @@
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="41"/>
-      <c r="F11" s="39"/>
+      <c r="F11" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
       <c r="I11" s="41"/>
@@ -1644,7 +1677,10 @@
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="41"/>
-      <c r="F12" s="39"/>
+      <c r="F12" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" s="41"/>
@@ -1673,7 +1709,10 @@
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
       <c r="E13" s="41"/>
-      <c r="F13" s="39"/>
+      <c r="F13" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
       <c r="I13" s="41"/>
@@ -1702,7 +1741,10 @@
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
       <c r="E14" s="41"/>
-      <c r="F14" s="39"/>
+      <c r="F14" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
       <c r="I14" s="41"/>
@@ -1731,7 +1773,10 @@
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="41"/>
-      <c r="F15" s="39"/>
+      <c r="F15" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
       <c r="I15" s="41"/>
@@ -1760,7 +1805,10 @@
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="41"/>
-      <c r="F16" s="39"/>
+      <c r="F16" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
       <c r="I16" s="41"/>
@@ -1789,7 +1837,10 @@
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
       <c r="E17" s="41"/>
-      <c r="F17" s="39"/>
+      <c r="F17" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
       <c r="I17" s="41"/>
@@ -1818,7 +1869,10 @@
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="41"/>
-      <c r="F18" s="39"/>
+      <c r="F18" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G18" s="40"/>
       <c r="H18" s="40"/>
       <c r="I18" s="41"/>
@@ -1847,7 +1901,10 @@
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="41"/>
-      <c r="F19" s="39"/>
+      <c r="F19" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
       <c r="I19" s="41"/>
@@ -1876,7 +1933,10 @@
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="41"/>
-      <c r="F20" s="39"/>
+      <c r="F20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G20" s="40"/>
       <c r="H20" s="40"/>
       <c r="I20" s="41"/>
@@ -1905,7 +1965,10 @@
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="41"/>
-      <c r="F21" s="39"/>
+      <c r="F21" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G21" s="40"/>
       <c r="H21" s="40"/>
       <c r="I21" s="41"/>
@@ -1934,7 +1997,10 @@
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
       <c r="E22" s="41"/>
-      <c r="F22" s="39"/>
+      <c r="F22" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G22" s="40"/>
       <c r="H22" s="40"/>
       <c r="I22" s="41"/>
@@ -1963,7 +2029,10 @@
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="41"/>
-      <c r="F23" s="39"/>
+      <c r="F23" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
       <c r="I23" s="41"/>
@@ -1992,7 +2061,10 @@
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="41"/>
-      <c r="F24" s="39"/>
+      <c r="F24" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
       <c r="I24" s="41"/>
@@ -2021,7 +2093,10 @@
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
       <c r="E25" s="41"/>
-      <c r="F25" s="39"/>
+      <c r="F25" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
       <c r="I25" s="41"/>
@@ -2187,9 +2262,7 @@
   </sheetPr>
   <dimension ref="A1:AW31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -4242,7 +4315,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="71" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="40"/>
@@ -4250,7 +4323,7 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="41"/>
-      <c r="I7" s="57" t="s">
+      <c r="I7" s="58" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="40"/>
@@ -4316,7 +4389,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="71" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="40"/>
@@ -4324,7 +4397,7 @@
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="41"/>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="58" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="40"/>
@@ -4390,7 +4463,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="71" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="40"/>
@@ -4398,7 +4471,7 @@
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="41"/>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="58" t="s">
         <v>28</v>
       </c>
       <c r="J9" s="40"/>
@@ -4464,75 +4537,75 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="33"/>
       <c r="B10" s="34"/>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="74" t="s">
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="74"/>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="74"/>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="74"/>
-      <c r="AN10" s="74"/>
-      <c r="AO10" s="74"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="74"/>
-      <c r="AR10" s="74"/>
-      <c r="AS10" s="74"/>
-      <c r="AT10" s="74"/>
-      <c r="AU10" s="74"/>
-      <c r="AV10" s="74"/>
-      <c r="AW10" s="74"/>
-      <c r="AX10" s="74"/>
-      <c r="AY10" s="74"/>
-      <c r="AZ10" s="74"/>
-      <c r="BA10" s="74"/>
-      <c r="BB10" s="74"/>
-      <c r="BC10" s="74"/>
-      <c r="BD10" s="74"/>
-      <c r="BE10" s="74"/>
-      <c r="BF10" s="74"/>
-      <c r="BG10" s="74"/>
-      <c r="BH10" s="74"/>
-      <c r="BI10" s="74"/>
-      <c r="BJ10" s="74"/>
-      <c r="BK10" s="74"/>
-      <c r="BL10" s="74"/>
-      <c r="BM10" s="74"/>
-      <c r="BN10" s="74"/>
-      <c r="BO10" s="74"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="75"/>
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="75"/>
+      <c r="AK10" s="75"/>
+      <c r="AL10" s="75"/>
+      <c r="AM10" s="75"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="75"/>
+      <c r="AQ10" s="75"/>
+      <c r="AR10" s="75"/>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="75"/>
+      <c r="AU10" s="75"/>
+      <c r="AV10" s="75"/>
+      <c r="AW10" s="75"/>
+      <c r="AX10" s="75"/>
+      <c r="AY10" s="75"/>
+      <c r="AZ10" s="75"/>
+      <c r="BA10" s="75"/>
+      <c r="BB10" s="75"/>
+      <c r="BC10" s="75"/>
+      <c r="BD10" s="75"/>
+      <c r="BE10" s="75"/>
+      <c r="BF10" s="75"/>
+      <c r="BG10" s="75"/>
+      <c r="BH10" s="75"/>
+      <c r="BI10" s="75"/>
+      <c r="BJ10" s="75"/>
+      <c r="BK10" s="75"/>
+      <c r="BL10" s="75"/>
+      <c r="BM10" s="75"/>
+      <c r="BN10" s="75"/>
+      <c r="BO10" s="75"/>
       <c r="BP10" s="33"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -4611,14 +4684,14 @@
       <c r="A12" s="2"/>
       <c r="B12" s="13"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="58" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="41"/>
-      <c r="I12" s="59" t="s">
+      <c r="I12" s="60" t="s">
         <v>31</v>
       </c>
       <c r="J12" s="40"/>
@@ -4685,14 +4758,14 @@
       <c r="A13" s="2"/>
       <c r="B13" s="13"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="58" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="59" t="s">
+      <c r="I13" s="60" t="s">
         <v>33</v>
       </c>
       <c r="J13" s="40"/>
@@ -4831,14 +4904,14 @@
       <c r="A15" s="2"/>
       <c r="B15" s="13"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="58" t="s">
         <v>81</v>
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="41"/>
-      <c r="I15" s="59" t="s">
+      <c r="I15" s="60" t="s">
         <v>82</v>
       </c>
       <c r="J15" s="40"/>
@@ -4903,11 +4976,11 @@
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -5010,7 +5083,7 @@
       <c r="AB17" s="40"/>
       <c r="AC17" s="40"/>
       <c r="AD17" s="41"/>
-      <c r="AE17" s="70" t="s">
+      <c r="AE17" s="71" t="s">
         <v>22</v>
       </c>
       <c r="AF17" s="40"/>
@@ -5074,27 +5147,27 @@
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="23"/>
-      <c r="Q18" s="71"/>
+      <c r="Q18" s="72"/>
       <c r="R18" s="40"/>
       <c r="S18" s="40"/>
       <c r="T18" s="40"/>
       <c r="U18" s="40"/>
       <c r="V18" s="40"/>
       <c r="W18" s="41"/>
-      <c r="X18" s="69"/>
+      <c r="X18" s="70"/>
       <c r="Y18" s="40"/>
       <c r="Z18" s="40"/>
       <c r="AA18" s="40"/>
       <c r="AB18" s="40"/>
       <c r="AC18" s="40"/>
       <c r="AD18" s="41"/>
-      <c r="AE18" s="57"/>
+      <c r="AE18" s="58"/>
       <c r="AF18" s="40"/>
       <c r="AG18" s="41"/>
-      <c r="AH18" s="69"/>
+      <c r="AH18" s="70"/>
       <c r="AI18" s="40"/>
       <c r="AJ18" s="41"/>
-      <c r="AK18" s="69"/>
+      <c r="AK18" s="70"/>
       <c r="AL18" s="40"/>
       <c r="AM18" s="40"/>
       <c r="AN18" s="40"/>
@@ -5131,22 +5204,22 @@
       <c r="A19" s="2"/>
       <c r="B19" s="13"/>
       <c r="C19" s="24"/>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="71" t="s">
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="72" t="s">
         <v>93</v>
       </c>
       <c r="R19" s="40"/>
@@ -5155,7 +5228,7 @@
       <c r="U19" s="40"/>
       <c r="V19" s="40"/>
       <c r="W19" s="41"/>
-      <c r="X19" s="69" t="s">
+      <c r="X19" s="70" t="s">
         <v>39</v>
       </c>
       <c r="Y19" s="40"/>
@@ -5164,13 +5237,13 @@
       <c r="AB19" s="40"/>
       <c r="AC19" s="40"/>
       <c r="AD19" s="41"/>
-      <c r="AE19" s="57"/>
+      <c r="AE19" s="58"/>
       <c r="AF19" s="40"/>
       <c r="AG19" s="41"/>
-      <c r="AH19" s="69"/>
+      <c r="AH19" s="70"/>
       <c r="AI19" s="40"/>
       <c r="AJ19" s="41"/>
-      <c r="AK19" s="69"/>
+      <c r="AK19" s="70"/>
       <c r="AL19" s="40"/>
       <c r="AM19" s="40"/>
       <c r="AN19" s="40"/>
@@ -5207,22 +5280,22 @@
       <c r="A20" s="2"/>
       <c r="B20" s="13"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="71" t="s">
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="72" t="s">
         <v>55</v>
       </c>
       <c r="R20" s="40"/>
@@ -5231,7 +5304,7 @@
       <c r="U20" s="40"/>
       <c r="V20" s="40"/>
       <c r="W20" s="41"/>
-      <c r="X20" s="69" t="s">
+      <c r="X20" s="70" t="s">
         <v>39</v>
       </c>
       <c r="Y20" s="40"/>
@@ -5240,13 +5313,13 @@
       <c r="AB20" s="40"/>
       <c r="AC20" s="40"/>
       <c r="AD20" s="41"/>
-      <c r="AE20" s="57"/>
+      <c r="AE20" s="58"/>
       <c r="AF20" s="40"/>
       <c r="AG20" s="41"/>
-      <c r="AH20" s="69"/>
+      <c r="AH20" s="70"/>
       <c r="AI20" s="40"/>
       <c r="AJ20" s="41"/>
-      <c r="AK20" s="69"/>
+      <c r="AK20" s="70"/>
       <c r="AL20" s="40"/>
       <c r="AM20" s="40"/>
       <c r="AN20" s="40"/>
@@ -5281,11 +5354,11 @@
     </row>
     <row r="21" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -5388,7 +5461,7 @@
       <c r="AB22" s="40"/>
       <c r="AC22" s="40"/>
       <c r="AD22" s="41"/>
-      <c r="AE22" s="70" t="s">
+      <c r="AE22" s="71" t="s">
         <v>22</v>
       </c>
       <c r="AF22" s="40"/>
@@ -5436,7 +5509,7 @@
     <row r="23" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A23" s="2"/>
       <c r="B23" s="35"/>
-      <c r="C23" s="57"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
@@ -5450,27 +5523,27 @@
       <c r="N23" s="40"/>
       <c r="O23" s="40"/>
       <c r="P23" s="41"/>
-      <c r="Q23" s="69"/>
+      <c r="Q23" s="70"/>
       <c r="R23" s="40"/>
       <c r="S23" s="40"/>
       <c r="T23" s="40"/>
       <c r="U23" s="40"/>
       <c r="V23" s="40"/>
       <c r="W23" s="41"/>
-      <c r="X23" s="69"/>
+      <c r="X23" s="70"/>
       <c r="Y23" s="40"/>
       <c r="Z23" s="40"/>
       <c r="AA23" s="40"/>
       <c r="AB23" s="40"/>
       <c r="AC23" s="40"/>
       <c r="AD23" s="41"/>
-      <c r="AE23" s="57"/>
+      <c r="AE23" s="58"/>
       <c r="AF23" s="40"/>
       <c r="AG23" s="41"/>
-      <c r="AH23" s="69"/>
+      <c r="AH23" s="70"/>
       <c r="AI23" s="40"/>
       <c r="AJ23" s="41"/>
-      <c r="AK23" s="69"/>
+      <c r="AK23" s="70"/>
       <c r="AL23" s="40"/>
       <c r="AM23" s="40"/>
       <c r="AN23" s="40"/>
@@ -5718,51 +5791,51 @@
     </row>
     <row r="27" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="47" t="s">
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="48"/>
-      <c r="Z27" s="48"/>
-      <c r="AA27" s="48"/>
-      <c r="AB27" s="49"/>
-      <c r="AC27" s="47" t="s">
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="49"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="AD27" s="48"/>
-      <c r="AE27" s="48"/>
-      <c r="AF27" s="48"/>
-      <c r="AG27" s="48"/>
-      <c r="AH27" s="48"/>
-      <c r="AI27" s="48"/>
-      <c r="AJ27" s="48"/>
-      <c r="AK27" s="49"/>
-      <c r="AL27" s="82" t="s">
+      <c r="AD27" s="49"/>
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="49"/>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="49"/>
+      <c r="AI27" s="49"/>
+      <c r="AJ27" s="49"/>
+      <c r="AK27" s="50"/>
+      <c r="AL27" s="83" t="s">
         <v>12</v>
       </c>
       <c r="AM27" s="40"/>
@@ -5798,43 +5871,43 @@
     </row>
     <row r="28" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="52"/>
-      <c r="AC28" s="77"/>
-      <c r="AD28" s="56"/>
-      <c r="AE28" s="56"/>
-      <c r="AF28" s="56"/>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="46"/>
-      <c r="AL28" s="83" t="s">
+      <c r="B28" s="47"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="53"/>
+      <c r="AC28" s="78"/>
+      <c r="AD28" s="57"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="57"/>
+      <c r="AJ28" s="57"/>
+      <c r="AK28" s="47"/>
+      <c r="AL28" s="84" t="s">
         <v>13</v>
       </c>
       <c r="AM28" s="40"/>
@@ -5845,14 +5918,14 @@
       <c r="AR28" s="40"/>
       <c r="AS28" s="40"/>
       <c r="AT28" s="41"/>
-      <c r="AU28" s="83" t="s">
+      <c r="AU28" s="84" t="s">
         <v>14</v>
       </c>
       <c r="AV28" s="40"/>
       <c r="AW28" s="40"/>
       <c r="AX28" s="40"/>
       <c r="AY28" s="41"/>
-      <c r="AZ28" s="83" t="s">
+      <c r="AZ28" s="84" t="s">
         <v>15</v>
       </c>
       <c r="BA28" s="40"/>
@@ -5878,35 +5951,35 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="62"/>
-      <c r="T29" s="62"/>
-      <c r="U29" s="62"/>
-      <c r="V29" s="62"/>
-      <c r="W29" s="62"/>
-      <c r="X29" s="62"/>
-      <c r="Y29" s="62"/>
-      <c r="Z29" s="62"/>
-      <c r="AA29" s="62"/>
-      <c r="AB29" s="63"/>
-      <c r="AC29" s="59" t="s">
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="63"/>
+      <c r="AA29" s="63"/>
+      <c r="AB29" s="64"/>
+      <c r="AC29" s="60" t="s">
         <v>89</v>
       </c>
       <c r="AD29" s="40"/>
@@ -5917,7 +5990,7 @@
       <c r="AI29" s="40"/>
       <c r="AJ29" s="40"/>
       <c r="AK29" s="41"/>
-      <c r="AL29" s="75" t="s">
+      <c r="AL29" s="76" t="s">
         <v>90</v>
       </c>
       <c r="AM29" s="40"/>
@@ -5928,12 +6001,12 @@
       <c r="AR29" s="40"/>
       <c r="AS29" s="40"/>
       <c r="AT29" s="41"/>
-      <c r="AU29" s="75"/>
+      <c r="AU29" s="76"/>
       <c r="AV29" s="40"/>
       <c r="AW29" s="40"/>
       <c r="AX29" s="40"/>
       <c r="AY29" s="41"/>
-      <c r="AZ29" s="76" t="s">
+      <c r="AZ29" s="77" t="s">
         <v>91</v>
       </c>
       <c r="BA29" s="40"/>
@@ -5959,33 +6032,33 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="66"/>
-      <c r="Y30" s="66"/>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="66"/>
-      <c r="AB30" s="67"/>
-      <c r="AC30" s="59" t="s">
+      <c r="C30" s="66"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="67"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="67"/>
+      <c r="V30" s="67"/>
+      <c r="W30" s="67"/>
+      <c r="X30" s="67"/>
+      <c r="Y30" s="67"/>
+      <c r="Z30" s="67"/>
+      <c r="AA30" s="67"/>
+      <c r="AB30" s="68"/>
+      <c r="AC30" s="60" t="s">
         <v>92</v>
       </c>
       <c r="AD30" s="40"/>
@@ -5996,7 +6069,7 @@
       <c r="AI30" s="40"/>
       <c r="AJ30" s="40"/>
       <c r="AK30" s="41"/>
-      <c r="AL30" s="75" t="s">
+      <c r="AL30" s="76" t="s">
         <v>100</v>
       </c>
       <c r="AM30" s="40"/>
@@ -6007,12 +6080,12 @@
       <c r="AR30" s="40"/>
       <c r="AS30" s="40"/>
       <c r="AT30" s="41"/>
-      <c r="AU30" s="75"/>
+      <c r="AU30" s="76"/>
       <c r="AV30" s="40"/>
       <c r="AW30" s="40"/>
       <c r="AX30" s="40"/>
       <c r="AY30" s="41"/>
-      <c r="AZ30" s="76" t="s">
+      <c r="AZ30" s="77" t="s">
         <v>94</v>
       </c>
       <c r="BA30" s="40"/>
@@ -6038,37 +6111,37 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="55" t="s">
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="56"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="56"/>
-      <c r="Z31" s="56"/>
-      <c r="AA31" s="56"/>
-      <c r="AB31" s="56"/>
-      <c r="AC31" s="57" t="s">
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="57"/>
+      <c r="AA31" s="57"/>
+      <c r="AB31" s="57"/>
+      <c r="AC31" s="58" t="s">
         <v>95</v>
       </c>
       <c r="AD31" s="40"/>
@@ -6079,7 +6152,7 @@
       <c r="AI31" s="40"/>
       <c r="AJ31" s="40"/>
       <c r="AK31" s="41"/>
-      <c r="AL31" s="75" t="s">
+      <c r="AL31" s="76" t="s">
         <v>96</v>
       </c>
       <c r="AM31" s="40"/>
@@ -6090,12 +6163,12 @@
       <c r="AR31" s="40"/>
       <c r="AS31" s="40"/>
       <c r="AT31" s="41"/>
-      <c r="AU31" s="75"/>
+      <c r="AU31" s="76"/>
       <c r="AV31" s="40"/>
       <c r="AW31" s="40"/>
       <c r="AX31" s="40"/>
       <c r="AY31" s="41"/>
-      <c r="AZ31" s="76" t="s">
+      <c r="AZ31" s="77" t="s">
         <v>97</v>
       </c>
       <c r="BA31" s="40"/>
@@ -6121,75 +6194,75 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="57" t="s">
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="60"/>
-      <c r="AC32" s="57"/>
-      <c r="AD32" s="59"/>
-      <c r="AE32" s="59"/>
-      <c r="AF32" s="59"/>
-      <c r="AG32" s="59"/>
-      <c r="AH32" s="59"/>
-      <c r="AI32" s="59"/>
-      <c r="AJ32" s="59"/>
-      <c r="AK32" s="60"/>
-      <c r="AL32" s="75"/>
-      <c r="AM32" s="78"/>
-      <c r="AN32" s="78"/>
-      <c r="AO32" s="78"/>
-      <c r="AP32" s="78"/>
-      <c r="AQ32" s="78"/>
-      <c r="AR32" s="78"/>
-      <c r="AS32" s="78"/>
-      <c r="AT32" s="79"/>
-      <c r="AU32" s="75"/>
-      <c r="AV32" s="78"/>
-      <c r="AW32" s="78"/>
-      <c r="AX32" s="78"/>
-      <c r="AY32" s="79"/>
-      <c r="AZ32" s="76"/>
-      <c r="BA32" s="80"/>
-      <c r="BB32" s="80"/>
-      <c r="BC32" s="80"/>
-      <c r="BD32" s="80"/>
-      <c r="BE32" s="80"/>
-      <c r="BF32" s="80"/>
-      <c r="BG32" s="80"/>
-      <c r="BH32" s="80"/>
-      <c r="BI32" s="80"/>
-      <c r="BJ32" s="80"/>
-      <c r="BK32" s="80"/>
-      <c r="BL32" s="80"/>
-      <c r="BM32" s="80"/>
-      <c r="BN32" s="80"/>
-      <c r="BO32" s="81"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="60"/>
+      <c r="Y32" s="60"/>
+      <c r="Z32" s="60"/>
+      <c r="AA32" s="60"/>
+      <c r="AB32" s="61"/>
+      <c r="AC32" s="58"/>
+      <c r="AD32" s="60"/>
+      <c r="AE32" s="60"/>
+      <c r="AF32" s="60"/>
+      <c r="AG32" s="60"/>
+      <c r="AH32" s="60"/>
+      <c r="AI32" s="60"/>
+      <c r="AJ32" s="60"/>
+      <c r="AK32" s="61"/>
+      <c r="AL32" s="76"/>
+      <c r="AM32" s="79"/>
+      <c r="AN32" s="79"/>
+      <c r="AO32" s="79"/>
+      <c r="AP32" s="79"/>
+      <c r="AQ32" s="79"/>
+      <c r="AR32" s="79"/>
+      <c r="AS32" s="79"/>
+      <c r="AT32" s="80"/>
+      <c r="AU32" s="76"/>
+      <c r="AV32" s="79"/>
+      <c r="AW32" s="79"/>
+      <c r="AX32" s="79"/>
+      <c r="AY32" s="80"/>
+      <c r="AZ32" s="77"/>
+      <c r="BA32" s="81"/>
+      <c r="BB32" s="81"/>
+      <c r="BC32" s="81"/>
+      <c r="BD32" s="81"/>
+      <c r="BE32" s="81"/>
+      <c r="BF32" s="81"/>
+      <c r="BG32" s="81"/>
+      <c r="BH32" s="81"/>
+      <c r="BI32" s="81"/>
+      <c r="BJ32" s="81"/>
+      <c r="BK32" s="81"/>
+      <c r="BL32" s="81"/>
+      <c r="BM32" s="81"/>
+      <c r="BN32" s="81"/>
+      <c r="BO32" s="82"/>
       <c r="BP32" s="2"/>
     </row>
     <row r="33" spans="1:68" ht="16.5">

--- a/ha-asset/01_design/05_rootapi/設計書_5.1.ログインAPI.xlsx
+++ b/ha-asset/01_design/05_rootapi/設計書_5.1.ログインAPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\05_rootapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7945F2-9685-45C7-B094-DDA4D0E976F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F15D94B-568C-458B-9AB8-A249C19C2D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="690" windowWidth="20580" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -992,36 +992,64 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1040,46 +1068,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2179,6 +2179,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -2188,66 +2248,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3875,9 +3875,7 @@
   </sheetPr>
   <dimension ref="A1:BP54"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:BO10"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -4315,7 +4313,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="54" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="40"/>
@@ -4323,7 +4321,7 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="41"/>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="66" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="40"/>
@@ -4389,7 +4387,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="54" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="40"/>
@@ -4397,7 +4395,7 @@
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="41"/>
-      <c r="I8" s="58" t="s">
+      <c r="I8" s="66" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="40"/>
@@ -4463,7 +4461,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="54" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="40"/>
@@ -4471,7 +4469,7 @@
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="41"/>
-      <c r="I9" s="58" t="s">
+      <c r="I9" s="66" t="s">
         <v>28</v>
       </c>
       <c r="J9" s="40"/>
@@ -4537,75 +4535,75 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="33"/>
       <c r="B10" s="34"/>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="75" t="s">
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="75"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="75"/>
-      <c r="AG10" s="75"/>
-      <c r="AH10" s="75"/>
-      <c r="AI10" s="75"/>
-      <c r="AJ10" s="75"/>
-      <c r="AK10" s="75"/>
-      <c r="AL10" s="75"/>
-      <c r="AM10" s="75"/>
-      <c r="AN10" s="75"/>
-      <c r="AO10" s="75"/>
-      <c r="AP10" s="75"/>
-      <c r="AQ10" s="75"/>
-      <c r="AR10" s="75"/>
-      <c r="AS10" s="75"/>
-      <c r="AT10" s="75"/>
-      <c r="AU10" s="75"/>
-      <c r="AV10" s="75"/>
-      <c r="AW10" s="75"/>
-      <c r="AX10" s="75"/>
-      <c r="AY10" s="75"/>
-      <c r="AZ10" s="75"/>
-      <c r="BA10" s="75"/>
-      <c r="BB10" s="75"/>
-      <c r="BC10" s="75"/>
-      <c r="BD10" s="75"/>
-      <c r="BE10" s="75"/>
-      <c r="BF10" s="75"/>
-      <c r="BG10" s="75"/>
-      <c r="BH10" s="75"/>
-      <c r="BI10" s="75"/>
-      <c r="BJ10" s="75"/>
-      <c r="BK10" s="75"/>
-      <c r="BL10" s="75"/>
-      <c r="BM10" s="75"/>
-      <c r="BN10" s="75"/>
-      <c r="BO10" s="75"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="56"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="56"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="56"/>
+      <c r="AP10" s="56"/>
+      <c r="AQ10" s="56"/>
+      <c r="AR10" s="56"/>
+      <c r="AS10" s="56"/>
+      <c r="AT10" s="56"/>
+      <c r="AU10" s="56"/>
+      <c r="AV10" s="56"/>
+      <c r="AW10" s="56"/>
+      <c r="AX10" s="56"/>
+      <c r="AY10" s="56"/>
+      <c r="AZ10" s="56"/>
+      <c r="BA10" s="56"/>
+      <c r="BB10" s="56"/>
+      <c r="BC10" s="56"/>
+      <c r="BD10" s="56"/>
+      <c r="BE10" s="56"/>
+      <c r="BF10" s="56"/>
+      <c r="BG10" s="56"/>
+      <c r="BH10" s="56"/>
+      <c r="BI10" s="56"/>
+      <c r="BJ10" s="56"/>
+      <c r="BK10" s="56"/>
+      <c r="BL10" s="56"/>
+      <c r="BM10" s="56"/>
+      <c r="BN10" s="56"/>
+      <c r="BO10" s="56"/>
       <c r="BP10" s="33"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -4684,14 +4682,14 @@
       <c r="A12" s="2"/>
       <c r="B12" s="13"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="66" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="41"/>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="67" t="s">
         <v>31</v>
       </c>
       <c r="J12" s="40"/>
@@ -4758,14 +4756,14 @@
       <c r="A13" s="2"/>
       <c r="B13" s="13"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="66" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="67" t="s">
         <v>33</v>
       </c>
       <c r="J13" s="40"/>
@@ -4904,14 +4902,14 @@
       <c r="A15" s="2"/>
       <c r="B15" s="13"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="66" t="s">
         <v>81</v>
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="41"/>
-      <c r="I15" s="60" t="s">
+      <c r="I15" s="67" t="s">
         <v>82</v>
       </c>
       <c r="J15" s="40"/>
@@ -4976,11 +4974,11 @@
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -5083,7 +5081,7 @@
       <c r="AB17" s="40"/>
       <c r="AC17" s="40"/>
       <c r="AD17" s="41"/>
-      <c r="AE17" s="71" t="s">
+      <c r="AE17" s="54" t="s">
         <v>22</v>
       </c>
       <c r="AF17" s="40"/>
@@ -5147,27 +5145,27 @@
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="23"/>
-      <c r="Q18" s="72"/>
+      <c r="Q18" s="64"/>
       <c r="R18" s="40"/>
       <c r="S18" s="40"/>
       <c r="T18" s="40"/>
       <c r="U18" s="40"/>
       <c r="V18" s="40"/>
       <c r="W18" s="41"/>
-      <c r="X18" s="70"/>
+      <c r="X18" s="65"/>
       <c r="Y18" s="40"/>
       <c r="Z18" s="40"/>
       <c r="AA18" s="40"/>
       <c r="AB18" s="40"/>
       <c r="AC18" s="40"/>
       <c r="AD18" s="41"/>
-      <c r="AE18" s="58"/>
+      <c r="AE18" s="66"/>
       <c r="AF18" s="40"/>
       <c r="AG18" s="41"/>
-      <c r="AH18" s="70"/>
+      <c r="AH18" s="65"/>
       <c r="AI18" s="40"/>
       <c r="AJ18" s="41"/>
-      <c r="AK18" s="70"/>
+      <c r="AK18" s="65"/>
       <c r="AL18" s="40"/>
       <c r="AM18" s="40"/>
       <c r="AN18" s="40"/>
@@ -5204,22 +5202,22 @@
       <c r="A19" s="2"/>
       <c r="B19" s="13"/>
       <c r="C19" s="24"/>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="72" t="s">
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="64" t="s">
         <v>93</v>
       </c>
       <c r="R19" s="40"/>
@@ -5228,7 +5226,7 @@
       <c r="U19" s="40"/>
       <c r="V19" s="40"/>
       <c r="W19" s="41"/>
-      <c r="X19" s="70" t="s">
+      <c r="X19" s="65" t="s">
         <v>39</v>
       </c>
       <c r="Y19" s="40"/>
@@ -5237,13 +5235,13 @@
       <c r="AB19" s="40"/>
       <c r="AC19" s="40"/>
       <c r="AD19" s="41"/>
-      <c r="AE19" s="58"/>
+      <c r="AE19" s="66"/>
       <c r="AF19" s="40"/>
       <c r="AG19" s="41"/>
-      <c r="AH19" s="70"/>
+      <c r="AH19" s="65"/>
       <c r="AI19" s="40"/>
       <c r="AJ19" s="41"/>
-      <c r="AK19" s="70"/>
+      <c r="AK19" s="65"/>
       <c r="AL19" s="40"/>
       <c r="AM19" s="40"/>
       <c r="AN19" s="40"/>
@@ -5280,22 +5278,22 @@
       <c r="A20" s="2"/>
       <c r="B20" s="13"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="72" t="s">
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="64" t="s">
         <v>55</v>
       </c>
       <c r="R20" s="40"/>
@@ -5304,7 +5302,7 @@
       <c r="U20" s="40"/>
       <c r="V20" s="40"/>
       <c r="W20" s="41"/>
-      <c r="X20" s="70" t="s">
+      <c r="X20" s="65" t="s">
         <v>39</v>
       </c>
       <c r="Y20" s="40"/>
@@ -5313,13 +5311,13 @@
       <c r="AB20" s="40"/>
       <c r="AC20" s="40"/>
       <c r="AD20" s="41"/>
-      <c r="AE20" s="58"/>
+      <c r="AE20" s="66"/>
       <c r="AF20" s="40"/>
       <c r="AG20" s="41"/>
-      <c r="AH20" s="70"/>
+      <c r="AH20" s="65"/>
       <c r="AI20" s="40"/>
       <c r="AJ20" s="41"/>
-      <c r="AK20" s="70"/>
+      <c r="AK20" s="65"/>
       <c r="AL20" s="40"/>
       <c r="AM20" s="40"/>
       <c r="AN20" s="40"/>
@@ -5354,11 +5352,11 @@
     </row>
     <row r="21" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -5461,7 +5459,7 @@
       <c r="AB22" s="40"/>
       <c r="AC22" s="40"/>
       <c r="AD22" s="41"/>
-      <c r="AE22" s="71" t="s">
+      <c r="AE22" s="54" t="s">
         <v>22</v>
       </c>
       <c r="AF22" s="40"/>
@@ -5509,7 +5507,7 @@
     <row r="23" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A23" s="2"/>
       <c r="B23" s="35"/>
-      <c r="C23" s="58"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
@@ -5523,27 +5521,27 @@
       <c r="N23" s="40"/>
       <c r="O23" s="40"/>
       <c r="P23" s="41"/>
-      <c r="Q23" s="70"/>
+      <c r="Q23" s="65"/>
       <c r="R23" s="40"/>
       <c r="S23" s="40"/>
       <c r="T23" s="40"/>
       <c r="U23" s="40"/>
       <c r="V23" s="40"/>
       <c r="W23" s="41"/>
-      <c r="X23" s="70"/>
+      <c r="X23" s="65"/>
       <c r="Y23" s="40"/>
       <c r="Z23" s="40"/>
       <c r="AA23" s="40"/>
       <c r="AB23" s="40"/>
       <c r="AC23" s="40"/>
       <c r="AD23" s="41"/>
-      <c r="AE23" s="58"/>
+      <c r="AE23" s="66"/>
       <c r="AF23" s="40"/>
       <c r="AG23" s="41"/>
-      <c r="AH23" s="70"/>
+      <c r="AH23" s="65"/>
       <c r="AI23" s="40"/>
       <c r="AJ23" s="41"/>
-      <c r="AK23" s="70"/>
+      <c r="AK23" s="65"/>
       <c r="AL23" s="40"/>
       <c r="AM23" s="40"/>
       <c r="AN23" s="40"/>
@@ -5791,51 +5789,51 @@
     </row>
     <row r="27" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="48" t="s">
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="49"/>
-      <c r="AA27" s="49"/>
-      <c r="AB27" s="50"/>
-      <c r="AC27" s="48" t="s">
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AD27" s="49"/>
-      <c r="AE27" s="49"/>
-      <c r="AF27" s="49"/>
-      <c r="AG27" s="49"/>
-      <c r="AH27" s="49"/>
-      <c r="AI27" s="49"/>
-      <c r="AJ27" s="49"/>
-      <c r="AK27" s="50"/>
-      <c r="AL27" s="83" t="s">
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="58"/>
+      <c r="AF27" s="58"/>
+      <c r="AG27" s="58"/>
+      <c r="AH27" s="58"/>
+      <c r="AI27" s="58"/>
+      <c r="AJ27" s="58"/>
+      <c r="AK27" s="59"/>
+      <c r="AL27" s="52" t="s">
         <v>12</v>
       </c>
       <c r="AM27" s="40"/>
@@ -5871,43 +5869,43 @@
     </row>
     <row r="28" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="52"/>
-      <c r="AB28" s="53"/>
-      <c r="AC28" s="78"/>
-      <c r="AD28" s="57"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="57"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="57"/>
-      <c r="AJ28" s="57"/>
-      <c r="AK28" s="47"/>
-      <c r="AL28" s="84" t="s">
+      <c r="B28" s="62"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="80"/>
+      <c r="T28" s="80"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="80"/>
+      <c r="W28" s="80"/>
+      <c r="X28" s="80"/>
+      <c r="Y28" s="80"/>
+      <c r="Z28" s="80"/>
+      <c r="AA28" s="80"/>
+      <c r="AB28" s="81"/>
+      <c r="AC28" s="60"/>
+      <c r="AD28" s="61"/>
+      <c r="AE28" s="61"/>
+      <c r="AF28" s="61"/>
+      <c r="AG28" s="61"/>
+      <c r="AH28" s="61"/>
+      <c r="AI28" s="61"/>
+      <c r="AJ28" s="61"/>
+      <c r="AK28" s="62"/>
+      <c r="AL28" s="53" t="s">
         <v>13</v>
       </c>
       <c r="AM28" s="40"/>
@@ -5918,14 +5916,14 @@
       <c r="AR28" s="40"/>
       <c r="AS28" s="40"/>
       <c r="AT28" s="41"/>
-      <c r="AU28" s="84" t="s">
+      <c r="AU28" s="53" t="s">
         <v>14</v>
       </c>
       <c r="AV28" s="40"/>
       <c r="AW28" s="40"/>
       <c r="AX28" s="40"/>
       <c r="AY28" s="41"/>
-      <c r="AZ28" s="84" t="s">
+      <c r="AZ28" s="53" t="s">
         <v>15</v>
       </c>
       <c r="BA28" s="40"/>
@@ -5951,35 +5949,35 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="63"/>
-      <c r="T29" s="63"/>
-      <c r="U29" s="63"/>
-      <c r="V29" s="63"/>
-      <c r="W29" s="63"/>
-      <c r="X29" s="63"/>
-      <c r="Y29" s="63"/>
-      <c r="Z29" s="63"/>
-      <c r="AA29" s="63"/>
-      <c r="AB29" s="64"/>
-      <c r="AC29" s="60" t="s">
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="71"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="67" t="s">
         <v>89</v>
       </c>
       <c r="AD29" s="40"/>
@@ -5990,7 +5988,7 @@
       <c r="AI29" s="40"/>
       <c r="AJ29" s="40"/>
       <c r="AK29" s="41"/>
-      <c r="AL29" s="76" t="s">
+      <c r="AL29" s="46" t="s">
         <v>90</v>
       </c>
       <c r="AM29" s="40"/>
@@ -6001,12 +5999,12 @@
       <c r="AR29" s="40"/>
       <c r="AS29" s="40"/>
       <c r="AT29" s="41"/>
-      <c r="AU29" s="76"/>
+      <c r="AU29" s="46"/>
       <c r="AV29" s="40"/>
       <c r="AW29" s="40"/>
       <c r="AX29" s="40"/>
       <c r="AY29" s="41"/>
-      <c r="AZ29" s="77" t="s">
+      <c r="AZ29" s="49" t="s">
         <v>91</v>
       </c>
       <c r="BA29" s="40"/>
@@ -6032,33 +6030,33 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="67"/>
-      <c r="R30" s="67"/>
-      <c r="S30" s="67"/>
-      <c r="T30" s="67"/>
-      <c r="U30" s="67"/>
-      <c r="V30" s="67"/>
-      <c r="W30" s="67"/>
-      <c r="X30" s="67"/>
-      <c r="Y30" s="67"/>
-      <c r="Z30" s="67"/>
-      <c r="AA30" s="67"/>
-      <c r="AB30" s="68"/>
-      <c r="AC30" s="60" t="s">
+      <c r="C30" s="74"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="75"/>
+      <c r="R30" s="75"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="75"/>
+      <c r="U30" s="75"/>
+      <c r="V30" s="75"/>
+      <c r="W30" s="75"/>
+      <c r="X30" s="75"/>
+      <c r="Y30" s="75"/>
+      <c r="Z30" s="75"/>
+      <c r="AA30" s="75"/>
+      <c r="AB30" s="76"/>
+      <c r="AC30" s="67" t="s">
         <v>92</v>
       </c>
       <c r="AD30" s="40"/>
@@ -6069,7 +6067,7 @@
       <c r="AI30" s="40"/>
       <c r="AJ30" s="40"/>
       <c r="AK30" s="41"/>
-      <c r="AL30" s="76" t="s">
+      <c r="AL30" s="46" t="s">
         <v>100</v>
       </c>
       <c r="AM30" s="40"/>
@@ -6080,12 +6078,12 @@
       <c r="AR30" s="40"/>
       <c r="AS30" s="40"/>
       <c r="AT30" s="41"/>
-      <c r="AU30" s="76"/>
+      <c r="AU30" s="46"/>
       <c r="AV30" s="40"/>
       <c r="AW30" s="40"/>
       <c r="AX30" s="40"/>
       <c r="AY30" s="41"/>
-      <c r="AZ30" s="77" t="s">
+      <c r="AZ30" s="49" t="s">
         <v>94</v>
       </c>
       <c r="BA30" s="40"/>
@@ -6111,37 +6109,37 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="56" t="s">
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="57"/>
-      <c r="X31" s="57"/>
-      <c r="Y31" s="57"/>
-      <c r="Z31" s="57"/>
-      <c r="AA31" s="57"/>
-      <c r="AB31" s="57"/>
-      <c r="AC31" s="58" t="s">
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="61"/>
+      <c r="V31" s="61"/>
+      <c r="W31" s="61"/>
+      <c r="X31" s="61"/>
+      <c r="Y31" s="61"/>
+      <c r="Z31" s="61"/>
+      <c r="AA31" s="61"/>
+      <c r="AB31" s="61"/>
+      <c r="AC31" s="66" t="s">
         <v>95</v>
       </c>
       <c r="AD31" s="40"/>
@@ -6152,7 +6150,7 @@
       <c r="AI31" s="40"/>
       <c r="AJ31" s="40"/>
       <c r="AK31" s="41"/>
-      <c r="AL31" s="76" t="s">
+      <c r="AL31" s="46" t="s">
         <v>96</v>
       </c>
       <c r="AM31" s="40"/>
@@ -6163,12 +6161,12 @@
       <c r="AR31" s="40"/>
       <c r="AS31" s="40"/>
       <c r="AT31" s="41"/>
-      <c r="AU31" s="76"/>
+      <c r="AU31" s="46"/>
       <c r="AV31" s="40"/>
       <c r="AW31" s="40"/>
       <c r="AX31" s="40"/>
       <c r="AY31" s="41"/>
-      <c r="AZ31" s="77" t="s">
+      <c r="AZ31" s="49" t="s">
         <v>97</v>
       </c>
       <c r="BA31" s="40"/>
@@ -6194,75 +6192,75 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="58" t="s">
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="60"/>
-      <c r="U32" s="60"/>
-      <c r="V32" s="60"/>
-      <c r="W32" s="60"/>
-      <c r="X32" s="60"/>
-      <c r="Y32" s="60"/>
-      <c r="Z32" s="60"/>
-      <c r="AA32" s="60"/>
-      <c r="AB32" s="61"/>
-      <c r="AC32" s="58"/>
-      <c r="AD32" s="60"/>
-      <c r="AE32" s="60"/>
-      <c r="AF32" s="60"/>
-      <c r="AG32" s="60"/>
-      <c r="AH32" s="60"/>
-      <c r="AI32" s="60"/>
-      <c r="AJ32" s="60"/>
-      <c r="AK32" s="61"/>
-      <c r="AL32" s="76"/>
-      <c r="AM32" s="79"/>
-      <c r="AN32" s="79"/>
-      <c r="AO32" s="79"/>
-      <c r="AP32" s="79"/>
-      <c r="AQ32" s="79"/>
-      <c r="AR32" s="79"/>
-      <c r="AS32" s="79"/>
-      <c r="AT32" s="80"/>
-      <c r="AU32" s="76"/>
-      <c r="AV32" s="79"/>
-      <c r="AW32" s="79"/>
-      <c r="AX32" s="79"/>
-      <c r="AY32" s="80"/>
-      <c r="AZ32" s="77"/>
-      <c r="BA32" s="81"/>
-      <c r="BB32" s="81"/>
-      <c r="BC32" s="81"/>
-      <c r="BD32" s="81"/>
-      <c r="BE32" s="81"/>
-      <c r="BF32" s="81"/>
-      <c r="BG32" s="81"/>
-      <c r="BH32" s="81"/>
-      <c r="BI32" s="81"/>
-      <c r="BJ32" s="81"/>
-      <c r="BK32" s="81"/>
-      <c r="BL32" s="81"/>
-      <c r="BM32" s="81"/>
-      <c r="BN32" s="81"/>
-      <c r="BO32" s="82"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="67"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="67"/>
+      <c r="U32" s="67"/>
+      <c r="V32" s="67"/>
+      <c r="W32" s="67"/>
+      <c r="X32" s="67"/>
+      <c r="Y32" s="67"/>
+      <c r="Z32" s="67"/>
+      <c r="AA32" s="67"/>
+      <c r="AB32" s="68"/>
+      <c r="AC32" s="66"/>
+      <c r="AD32" s="67"/>
+      <c r="AE32" s="67"/>
+      <c r="AF32" s="67"/>
+      <c r="AG32" s="67"/>
+      <c r="AH32" s="67"/>
+      <c r="AI32" s="67"/>
+      <c r="AJ32" s="67"/>
+      <c r="AK32" s="68"/>
+      <c r="AL32" s="46"/>
+      <c r="AM32" s="47"/>
+      <c r="AN32" s="47"/>
+      <c r="AO32" s="47"/>
+      <c r="AP32" s="47"/>
+      <c r="AQ32" s="47"/>
+      <c r="AR32" s="47"/>
+      <c r="AS32" s="47"/>
+      <c r="AT32" s="48"/>
+      <c r="AU32" s="46"/>
+      <c r="AV32" s="47"/>
+      <c r="AW32" s="47"/>
+      <c r="AX32" s="47"/>
+      <c r="AY32" s="48"/>
+      <c r="AZ32" s="49"/>
+      <c r="BA32" s="50"/>
+      <c r="BB32" s="50"/>
+      <c r="BC32" s="50"/>
+      <c r="BD32" s="50"/>
+      <c r="BE32" s="50"/>
+      <c r="BF32" s="50"/>
+      <c r="BG32" s="50"/>
+      <c r="BH32" s="50"/>
+      <c r="BI32" s="50"/>
+      <c r="BJ32" s="50"/>
+      <c r="BK32" s="50"/>
+      <c r="BL32" s="50"/>
+      <c r="BM32" s="50"/>
+      <c r="BN32" s="50"/>
+      <c r="BO32" s="51"/>
       <c r="BP32" s="2"/>
     </row>
     <row r="33" spans="1:68" ht="16.5">
@@ -7827,19 +7825,58 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="AL32:AT32"/>
-    <mergeCell ref="AU32:AY32"/>
-    <mergeCell ref="AZ32:BO32"/>
-    <mergeCell ref="AL27:BO27"/>
-    <mergeCell ref="AL28:AT28"/>
-    <mergeCell ref="AU28:AY28"/>
-    <mergeCell ref="AZ28:BO28"/>
-    <mergeCell ref="AL29:AT29"/>
-    <mergeCell ref="AU29:AY29"/>
-    <mergeCell ref="AZ29:BO29"/>
-    <mergeCell ref="AL30:AT30"/>
-    <mergeCell ref="AU30:AY30"/>
-    <mergeCell ref="AZ30:BO30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:K28"/>
+    <mergeCell ref="L27:AB28"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="L31:AB31"/>
+    <mergeCell ref="AC31:AK31"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="L32:AB32"/>
+    <mergeCell ref="AC32:AK32"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L29:AB29"/>
+    <mergeCell ref="AC29:AK29"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="L30:AB30"/>
+    <mergeCell ref="AC30:AK30"/>
+    <mergeCell ref="C23:P23"/>
+    <mergeCell ref="AK19:BO19"/>
+    <mergeCell ref="AK20:BO20"/>
+    <mergeCell ref="Q22:W22"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="Q23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="AK23:BO23"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AK22:BO22"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="AK18:BO18"/>
+    <mergeCell ref="C17:P17"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="I15:BO15"/>
+    <mergeCell ref="I13:BO13"/>
+    <mergeCell ref="AK17:BO17"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BO7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BO8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="I12:BO12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="X17:AD17"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="I10:BO10"/>
     <mergeCell ref="AL31:AT31"/>
@@ -7856,58 +7893,19 @@
     <mergeCell ref="X19:AD19"/>
     <mergeCell ref="AE19:AG19"/>
     <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="I15:BO15"/>
-    <mergeCell ref="I13:BO13"/>
-    <mergeCell ref="AK17:BO17"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BO7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BO8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BO9"/>
-    <mergeCell ref="I12:BO12"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="AK18:BO18"/>
-    <mergeCell ref="C17:P17"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="C23:P23"/>
-    <mergeCell ref="AK19:BO19"/>
-    <mergeCell ref="AK20:BO20"/>
-    <mergeCell ref="Q22:W22"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="Q23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AK23:BO23"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AK22:BO22"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="AC31:AK31"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="L32:AB32"/>
-    <mergeCell ref="AC32:AK32"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="L29:AB29"/>
-    <mergeCell ref="AC29:AK29"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="L30:AB30"/>
-    <mergeCell ref="AC30:AK30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:K28"/>
-    <mergeCell ref="L27:AB28"/>
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="L31:AB31"/>
+    <mergeCell ref="AL32:AT32"/>
+    <mergeCell ref="AU32:AY32"/>
+    <mergeCell ref="AZ32:BO32"/>
+    <mergeCell ref="AL27:BO27"/>
+    <mergeCell ref="AL28:AT28"/>
+    <mergeCell ref="AU28:AY28"/>
+    <mergeCell ref="AZ28:BO28"/>
+    <mergeCell ref="AL29:AT29"/>
+    <mergeCell ref="AU29:AY29"/>
+    <mergeCell ref="AZ29:BO29"/>
+    <mergeCell ref="AL30:AT30"/>
+    <mergeCell ref="AU30:AY30"/>
+    <mergeCell ref="AZ30:BO30"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">

--- a/ha-asset/01_design/05_rootapi/設計書_5.1.ログインAPI.xlsx
+++ b/ha-asset/01_design/05_rootapi/設計書_5.1.ログインAPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\05_rootapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F15D94B-568C-458B-9AB8-A249C19C2D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45866D31-01DD-429E-8E8A-9691A5EA3954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="21075" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="105">
   <si>
     <t>更新日時</t>
   </si>
@@ -417,6 +417,42 @@
   </si>
   <si>
     <t>機能一覧シート最新化</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>実装に合わせ最新化</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>全角文字</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>真偽値</t>
+    <rPh sb="0" eb="2">
+      <t>シンギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -992,64 +1028,36 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1068,18 +1076,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1481,18 +1517,22 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2"/>
-      <c r="B6" s="39"/>
+      <c r="B6" s="45">
+        <v>45880</v>
+      </c>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
       <c r="E6" s="41"/>
-      <c r="F6" s="39" t="str">
+      <c r="F6" s="39">
         <f t="shared" ref="F6:F25" si="0">IF(B6="","",F5+0.01)</f>
-        <v/>
+        <v>1.02</v>
       </c>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" s="41"/>
-      <c r="J6" s="39"/>
+      <c r="J6" s="39" t="s">
+        <v>102</v>
+      </c>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
@@ -2179,12 +2219,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -2194,60 +2282,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4313,7 +4353,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="71" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="40"/>
@@ -4321,7 +4361,7 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="41"/>
-      <c r="I7" s="66" t="s">
+      <c r="I7" s="58" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="40"/>
@@ -4387,7 +4427,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="71" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="40"/>
@@ -4395,7 +4435,7 @@
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="41"/>
-      <c r="I8" s="66" t="s">
+      <c r="I8" s="58" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="40"/>
@@ -4461,7 +4501,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="71" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="40"/>
@@ -4469,7 +4509,7 @@
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="41"/>
-      <c r="I9" s="66" t="s">
+      <c r="I9" s="58" t="s">
         <v>28</v>
       </c>
       <c r="J9" s="40"/>
@@ -4535,75 +4575,75 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="33"/>
       <c r="B10" s="34"/>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="56" t="s">
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="56"/>
-      <c r="AF10" s="56"/>
-      <c r="AG10" s="56"/>
-      <c r="AH10" s="56"/>
-      <c r="AI10" s="56"/>
-      <c r="AJ10" s="56"/>
-      <c r="AK10" s="56"/>
-      <c r="AL10" s="56"/>
-      <c r="AM10" s="56"/>
-      <c r="AN10" s="56"/>
-      <c r="AO10" s="56"/>
-      <c r="AP10" s="56"/>
-      <c r="AQ10" s="56"/>
-      <c r="AR10" s="56"/>
-      <c r="AS10" s="56"/>
-      <c r="AT10" s="56"/>
-      <c r="AU10" s="56"/>
-      <c r="AV10" s="56"/>
-      <c r="AW10" s="56"/>
-      <c r="AX10" s="56"/>
-      <c r="AY10" s="56"/>
-      <c r="AZ10" s="56"/>
-      <c r="BA10" s="56"/>
-      <c r="BB10" s="56"/>
-      <c r="BC10" s="56"/>
-      <c r="BD10" s="56"/>
-      <c r="BE10" s="56"/>
-      <c r="BF10" s="56"/>
-      <c r="BG10" s="56"/>
-      <c r="BH10" s="56"/>
-      <c r="BI10" s="56"/>
-      <c r="BJ10" s="56"/>
-      <c r="BK10" s="56"/>
-      <c r="BL10" s="56"/>
-      <c r="BM10" s="56"/>
-      <c r="BN10" s="56"/>
-      <c r="BO10" s="56"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="75"/>
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="75"/>
+      <c r="AK10" s="75"/>
+      <c r="AL10" s="75"/>
+      <c r="AM10" s="75"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="75"/>
+      <c r="AQ10" s="75"/>
+      <c r="AR10" s="75"/>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="75"/>
+      <c r="AU10" s="75"/>
+      <c r="AV10" s="75"/>
+      <c r="AW10" s="75"/>
+      <c r="AX10" s="75"/>
+      <c r="AY10" s="75"/>
+      <c r="AZ10" s="75"/>
+      <c r="BA10" s="75"/>
+      <c r="BB10" s="75"/>
+      <c r="BC10" s="75"/>
+      <c r="BD10" s="75"/>
+      <c r="BE10" s="75"/>
+      <c r="BF10" s="75"/>
+      <c r="BG10" s="75"/>
+      <c r="BH10" s="75"/>
+      <c r="BI10" s="75"/>
+      <c r="BJ10" s="75"/>
+      <c r="BK10" s="75"/>
+      <c r="BL10" s="75"/>
+      <c r="BM10" s="75"/>
+      <c r="BN10" s="75"/>
+      <c r="BO10" s="75"/>
       <c r="BP10" s="33"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -4682,14 +4722,14 @@
       <c r="A12" s="2"/>
       <c r="B12" s="13"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="58" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="41"/>
-      <c r="I12" s="67" t="s">
+      <c r="I12" s="60" t="s">
         <v>31</v>
       </c>
       <c r="J12" s="40"/>
@@ -4756,14 +4796,14 @@
       <c r="A13" s="2"/>
       <c r="B13" s="13"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="58" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="60" t="s">
         <v>33</v>
       </c>
       <c r="J13" s="40"/>
@@ -4902,14 +4942,14 @@
       <c r="A15" s="2"/>
       <c r="B15" s="13"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="58" t="s">
         <v>81</v>
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="41"/>
-      <c r="I15" s="67" t="s">
+      <c r="I15" s="60" t="s">
         <v>82</v>
       </c>
       <c r="J15" s="40"/>
@@ -4974,11 +5014,11 @@
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -5081,7 +5121,7 @@
       <c r="AB17" s="40"/>
       <c r="AC17" s="40"/>
       <c r="AD17" s="41"/>
-      <c r="AE17" s="54" t="s">
+      <c r="AE17" s="71" t="s">
         <v>22</v>
       </c>
       <c r="AF17" s="40"/>
@@ -5145,27 +5185,27 @@
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="23"/>
-      <c r="Q18" s="64"/>
+      <c r="Q18" s="72"/>
       <c r="R18" s="40"/>
       <c r="S18" s="40"/>
       <c r="T18" s="40"/>
       <c r="U18" s="40"/>
       <c r="V18" s="40"/>
       <c r="W18" s="41"/>
-      <c r="X18" s="65"/>
+      <c r="X18" s="70"/>
       <c r="Y18" s="40"/>
       <c r="Z18" s="40"/>
       <c r="AA18" s="40"/>
       <c r="AB18" s="40"/>
       <c r="AC18" s="40"/>
       <c r="AD18" s="41"/>
-      <c r="AE18" s="66"/>
+      <c r="AE18" s="58"/>
       <c r="AF18" s="40"/>
       <c r="AG18" s="41"/>
-      <c r="AH18" s="65"/>
+      <c r="AH18" s="70"/>
       <c r="AI18" s="40"/>
       <c r="AJ18" s="41"/>
-      <c r="AK18" s="65"/>
+      <c r="AK18" s="70"/>
       <c r="AL18" s="40"/>
       <c r="AM18" s="40"/>
       <c r="AN18" s="40"/>
@@ -5202,22 +5242,22 @@
       <c r="A19" s="2"/>
       <c r="B19" s="13"/>
       <c r="C19" s="24"/>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="64" t="s">
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="72" t="s">
         <v>93</v>
       </c>
       <c r="R19" s="40"/>
@@ -5226,7 +5266,7 @@
       <c r="U19" s="40"/>
       <c r="V19" s="40"/>
       <c r="W19" s="41"/>
-      <c r="X19" s="65" t="s">
+      <c r="X19" s="70" t="s">
         <v>39</v>
       </c>
       <c r="Y19" s="40"/>
@@ -5235,13 +5275,13 @@
       <c r="AB19" s="40"/>
       <c r="AC19" s="40"/>
       <c r="AD19" s="41"/>
-      <c r="AE19" s="66"/>
+      <c r="AE19" s="58"/>
       <c r="AF19" s="40"/>
       <c r="AG19" s="41"/>
-      <c r="AH19" s="65"/>
+      <c r="AH19" s="70"/>
       <c r="AI19" s="40"/>
       <c r="AJ19" s="41"/>
-      <c r="AK19" s="65"/>
+      <c r="AK19" s="70"/>
       <c r="AL19" s="40"/>
       <c r="AM19" s="40"/>
       <c r="AN19" s="40"/>
@@ -5278,22 +5318,22 @@
       <c r="A20" s="2"/>
       <c r="B20" s="13"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="64" t="s">
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="72" t="s">
         <v>55</v>
       </c>
       <c r="R20" s="40"/>
@@ -5302,7 +5342,7 @@
       <c r="U20" s="40"/>
       <c r="V20" s="40"/>
       <c r="W20" s="41"/>
-      <c r="X20" s="65" t="s">
+      <c r="X20" s="70" t="s">
         <v>39</v>
       </c>
       <c r="Y20" s="40"/>
@@ -5311,13 +5351,13 @@
       <c r="AB20" s="40"/>
       <c r="AC20" s="40"/>
       <c r="AD20" s="41"/>
-      <c r="AE20" s="66"/>
+      <c r="AE20" s="58"/>
       <c r="AF20" s="40"/>
       <c r="AG20" s="41"/>
-      <c r="AH20" s="65"/>
+      <c r="AH20" s="70"/>
       <c r="AI20" s="40"/>
       <c r="AJ20" s="41"/>
-      <c r="AK20" s="65"/>
+      <c r="AK20" s="70"/>
       <c r="AL20" s="40"/>
       <c r="AM20" s="40"/>
       <c r="AN20" s="40"/>
@@ -5352,11 +5392,11 @@
     </row>
     <row r="21" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -5459,7 +5499,7 @@
       <c r="AB22" s="40"/>
       <c r="AC22" s="40"/>
       <c r="AD22" s="41"/>
-      <c r="AE22" s="54" t="s">
+      <c r="AE22" s="71" t="s">
         <v>22</v>
       </c>
       <c r="AF22" s="40"/>
@@ -5507,7 +5547,7 @@
     <row r="23" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A23" s="2"/>
       <c r="B23" s="35"/>
-      <c r="C23" s="66"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
@@ -5521,27 +5561,27 @@
       <c r="N23" s="40"/>
       <c r="O23" s="40"/>
       <c r="P23" s="41"/>
-      <c r="Q23" s="65"/>
+      <c r="Q23" s="70"/>
       <c r="R23" s="40"/>
       <c r="S23" s="40"/>
       <c r="T23" s="40"/>
       <c r="U23" s="40"/>
       <c r="V23" s="40"/>
       <c r="W23" s="41"/>
-      <c r="X23" s="65"/>
+      <c r="X23" s="70"/>
       <c r="Y23" s="40"/>
       <c r="Z23" s="40"/>
       <c r="AA23" s="40"/>
       <c r="AB23" s="40"/>
       <c r="AC23" s="40"/>
       <c r="AD23" s="41"/>
-      <c r="AE23" s="66"/>
+      <c r="AE23" s="58"/>
       <c r="AF23" s="40"/>
       <c r="AG23" s="41"/>
-      <c r="AH23" s="65"/>
+      <c r="AH23" s="70"/>
       <c r="AI23" s="40"/>
       <c r="AJ23" s="41"/>
-      <c r="AK23" s="65"/>
+      <c r="AK23" s="70"/>
       <c r="AL23" s="40"/>
       <c r="AM23" s="40"/>
       <c r="AN23" s="40"/>
@@ -5789,51 +5829,51 @@
     </row>
     <row r="27" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="57" t="s">
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="57" t="s">
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="49"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="58"/>
-      <c r="AF27" s="58"/>
-      <c r="AG27" s="58"/>
-      <c r="AH27" s="58"/>
-      <c r="AI27" s="58"/>
-      <c r="AJ27" s="58"/>
-      <c r="AK27" s="59"/>
-      <c r="AL27" s="52" t="s">
+      <c r="AD27" s="49"/>
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="49"/>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="49"/>
+      <c r="AI27" s="49"/>
+      <c r="AJ27" s="49"/>
+      <c r="AK27" s="50"/>
+      <c r="AL27" s="83" t="s">
         <v>12</v>
       </c>
       <c r="AM27" s="40"/>
@@ -5869,43 +5909,43 @@
     </row>
     <row r="28" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="80"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="80"/>
-      <c r="U28" s="80"/>
-      <c r="V28" s="80"/>
-      <c r="W28" s="80"/>
-      <c r="X28" s="80"/>
-      <c r="Y28" s="80"/>
-      <c r="Z28" s="80"/>
-      <c r="AA28" s="80"/>
-      <c r="AB28" s="81"/>
-      <c r="AC28" s="60"/>
-      <c r="AD28" s="61"/>
-      <c r="AE28" s="61"/>
-      <c r="AF28" s="61"/>
-      <c r="AG28" s="61"/>
-      <c r="AH28" s="61"/>
-      <c r="AI28" s="61"/>
-      <c r="AJ28" s="61"/>
-      <c r="AK28" s="62"/>
-      <c r="AL28" s="53" t="s">
+      <c r="B28" s="47"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="53"/>
+      <c r="AC28" s="78"/>
+      <c r="AD28" s="57"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="57"/>
+      <c r="AJ28" s="57"/>
+      <c r="AK28" s="47"/>
+      <c r="AL28" s="84" t="s">
         <v>13</v>
       </c>
       <c r="AM28" s="40"/>
@@ -5916,14 +5956,14 @@
       <c r="AR28" s="40"/>
       <c r="AS28" s="40"/>
       <c r="AT28" s="41"/>
-      <c r="AU28" s="53" t="s">
+      <c r="AU28" s="84" t="s">
         <v>14</v>
       </c>
       <c r="AV28" s="40"/>
       <c r="AW28" s="40"/>
       <c r="AX28" s="40"/>
       <c r="AY28" s="41"/>
-      <c r="AZ28" s="53" t="s">
+      <c r="AZ28" s="84" t="s">
         <v>15</v>
       </c>
       <c r="BA28" s="40"/>
@@ -5949,35 +5989,35 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="71"/>
-      <c r="W29" s="71"/>
-      <c r="X29" s="71"/>
-      <c r="Y29" s="71"/>
-      <c r="Z29" s="71"/>
-      <c r="AA29" s="71"/>
-      <c r="AB29" s="72"/>
-      <c r="AC29" s="67" t="s">
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="63"/>
+      <c r="AA29" s="63"/>
+      <c r="AB29" s="64"/>
+      <c r="AC29" s="60" t="s">
         <v>89</v>
       </c>
       <c r="AD29" s="40"/>
@@ -5988,7 +6028,7 @@
       <c r="AI29" s="40"/>
       <c r="AJ29" s="40"/>
       <c r="AK29" s="41"/>
-      <c r="AL29" s="46" t="s">
+      <c r="AL29" s="76" t="s">
         <v>90</v>
       </c>
       <c r="AM29" s="40"/>
@@ -5999,12 +6039,12 @@
       <c r="AR29" s="40"/>
       <c r="AS29" s="40"/>
       <c r="AT29" s="41"/>
-      <c r="AU29" s="46"/>
+      <c r="AU29" s="76"/>
       <c r="AV29" s="40"/>
       <c r="AW29" s="40"/>
       <c r="AX29" s="40"/>
       <c r="AY29" s="41"/>
-      <c r="AZ29" s="49" t="s">
+      <c r="AZ29" s="77" t="s">
         <v>91</v>
       </c>
       <c r="BA29" s="40"/>
@@ -6030,33 +6070,33 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="75"/>
-      <c r="R30" s="75"/>
-      <c r="S30" s="75"/>
-      <c r="T30" s="75"/>
-      <c r="U30" s="75"/>
-      <c r="V30" s="75"/>
-      <c r="W30" s="75"/>
-      <c r="X30" s="75"/>
-      <c r="Y30" s="75"/>
-      <c r="Z30" s="75"/>
-      <c r="AA30" s="75"/>
-      <c r="AB30" s="76"/>
-      <c r="AC30" s="67" t="s">
+      <c r="C30" s="66"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="67"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="67"/>
+      <c r="V30" s="67"/>
+      <c r="W30" s="67"/>
+      <c r="X30" s="67"/>
+      <c r="Y30" s="67"/>
+      <c r="Z30" s="67"/>
+      <c r="AA30" s="67"/>
+      <c r="AB30" s="68"/>
+      <c r="AC30" s="60" t="s">
         <v>92</v>
       </c>
       <c r="AD30" s="40"/>
@@ -6067,7 +6107,7 @@
       <c r="AI30" s="40"/>
       <c r="AJ30" s="40"/>
       <c r="AK30" s="41"/>
-      <c r="AL30" s="46" t="s">
+      <c r="AL30" s="76" t="s">
         <v>100</v>
       </c>
       <c r="AM30" s="40"/>
@@ -6078,12 +6118,12 @@
       <c r="AR30" s="40"/>
       <c r="AS30" s="40"/>
       <c r="AT30" s="41"/>
-      <c r="AU30" s="46"/>
+      <c r="AU30" s="76"/>
       <c r="AV30" s="40"/>
       <c r="AW30" s="40"/>
       <c r="AX30" s="40"/>
       <c r="AY30" s="41"/>
-      <c r="AZ30" s="49" t="s">
+      <c r="AZ30" s="77" t="s">
         <v>94</v>
       </c>
       <c r="BA30" s="40"/>
@@ -6109,37 +6149,37 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C31" s="82" t="s">
+      <c r="C31" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="84" t="s">
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="61"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="61"/>
-      <c r="U31" s="61"/>
-      <c r="V31" s="61"/>
-      <c r="W31" s="61"/>
-      <c r="X31" s="61"/>
-      <c r="Y31" s="61"/>
-      <c r="Z31" s="61"/>
-      <c r="AA31" s="61"/>
-      <c r="AB31" s="61"/>
-      <c r="AC31" s="66" t="s">
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="57"/>
+      <c r="AA31" s="57"/>
+      <c r="AB31" s="57"/>
+      <c r="AC31" s="58" t="s">
         <v>95</v>
       </c>
       <c r="AD31" s="40"/>
@@ -6150,7 +6190,7 @@
       <c r="AI31" s="40"/>
       <c r="AJ31" s="40"/>
       <c r="AK31" s="41"/>
-      <c r="AL31" s="46" t="s">
+      <c r="AL31" s="76" t="s">
         <v>96</v>
       </c>
       <c r="AM31" s="40"/>
@@ -6161,12 +6201,12 @@
       <c r="AR31" s="40"/>
       <c r="AS31" s="40"/>
       <c r="AT31" s="41"/>
-      <c r="AU31" s="46"/>
+      <c r="AU31" s="76"/>
       <c r="AV31" s="40"/>
       <c r="AW31" s="40"/>
       <c r="AX31" s="40"/>
       <c r="AY31" s="41"/>
-      <c r="AZ31" s="49" t="s">
+      <c r="AZ31" s="77" t="s">
         <v>97</v>
       </c>
       <c r="BA31" s="40"/>
@@ -6192,75 +6232,75 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C32" s="69" t="s">
+      <c r="C32" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="66" t="s">
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="67"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="67"/>
-      <c r="T32" s="67"/>
-      <c r="U32" s="67"/>
-      <c r="V32" s="67"/>
-      <c r="W32" s="67"/>
-      <c r="X32" s="67"/>
-      <c r="Y32" s="67"/>
-      <c r="Z32" s="67"/>
-      <c r="AA32" s="67"/>
-      <c r="AB32" s="68"/>
-      <c r="AC32" s="66"/>
-      <c r="AD32" s="67"/>
-      <c r="AE32" s="67"/>
-      <c r="AF32" s="67"/>
-      <c r="AG32" s="67"/>
-      <c r="AH32" s="67"/>
-      <c r="AI32" s="67"/>
-      <c r="AJ32" s="67"/>
-      <c r="AK32" s="68"/>
-      <c r="AL32" s="46"/>
-      <c r="AM32" s="47"/>
-      <c r="AN32" s="47"/>
-      <c r="AO32" s="47"/>
-      <c r="AP32" s="47"/>
-      <c r="AQ32" s="47"/>
-      <c r="AR32" s="47"/>
-      <c r="AS32" s="47"/>
-      <c r="AT32" s="48"/>
-      <c r="AU32" s="46"/>
-      <c r="AV32" s="47"/>
-      <c r="AW32" s="47"/>
-      <c r="AX32" s="47"/>
-      <c r="AY32" s="48"/>
-      <c r="AZ32" s="49"/>
-      <c r="BA32" s="50"/>
-      <c r="BB32" s="50"/>
-      <c r="BC32" s="50"/>
-      <c r="BD32" s="50"/>
-      <c r="BE32" s="50"/>
-      <c r="BF32" s="50"/>
-      <c r="BG32" s="50"/>
-      <c r="BH32" s="50"/>
-      <c r="BI32" s="50"/>
-      <c r="BJ32" s="50"/>
-      <c r="BK32" s="50"/>
-      <c r="BL32" s="50"/>
-      <c r="BM32" s="50"/>
-      <c r="BN32" s="50"/>
-      <c r="BO32" s="51"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="60"/>
+      <c r="Y32" s="60"/>
+      <c r="Z32" s="60"/>
+      <c r="AA32" s="60"/>
+      <c r="AB32" s="61"/>
+      <c r="AC32" s="58"/>
+      <c r="AD32" s="60"/>
+      <c r="AE32" s="60"/>
+      <c r="AF32" s="60"/>
+      <c r="AG32" s="60"/>
+      <c r="AH32" s="60"/>
+      <c r="AI32" s="60"/>
+      <c r="AJ32" s="60"/>
+      <c r="AK32" s="61"/>
+      <c r="AL32" s="76"/>
+      <c r="AM32" s="79"/>
+      <c r="AN32" s="79"/>
+      <c r="AO32" s="79"/>
+      <c r="AP32" s="79"/>
+      <c r="AQ32" s="79"/>
+      <c r="AR32" s="79"/>
+      <c r="AS32" s="79"/>
+      <c r="AT32" s="80"/>
+      <c r="AU32" s="76"/>
+      <c r="AV32" s="79"/>
+      <c r="AW32" s="79"/>
+      <c r="AX32" s="79"/>
+      <c r="AY32" s="80"/>
+      <c r="AZ32" s="77"/>
+      <c r="BA32" s="81"/>
+      <c r="BB32" s="81"/>
+      <c r="BC32" s="81"/>
+      <c r="BD32" s="81"/>
+      <c r="BE32" s="81"/>
+      <c r="BF32" s="81"/>
+      <c r="BG32" s="81"/>
+      <c r="BH32" s="81"/>
+      <c r="BI32" s="81"/>
+      <c r="BJ32" s="81"/>
+      <c r="BK32" s="81"/>
+      <c r="BL32" s="81"/>
+      <c r="BM32" s="81"/>
+      <c r="BN32" s="81"/>
+      <c r="BO32" s="82"/>
       <c r="BP32" s="2"/>
     </row>
     <row r="33" spans="1:68" ht="16.5">
@@ -7825,42 +7865,35 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:K28"/>
-    <mergeCell ref="L27:AB28"/>
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="L31:AB31"/>
-    <mergeCell ref="AC31:AK31"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="L32:AB32"/>
-    <mergeCell ref="AC32:AK32"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="L29:AB29"/>
-    <mergeCell ref="AC29:AK29"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="L30:AB30"/>
-    <mergeCell ref="AC30:AK30"/>
-    <mergeCell ref="C23:P23"/>
-    <mergeCell ref="AK19:BO19"/>
-    <mergeCell ref="AK20:BO20"/>
-    <mergeCell ref="Q22:W22"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="Q23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AK23:BO23"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AK22:BO22"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="AK18:BO18"/>
-    <mergeCell ref="C17:P17"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AL32:AT32"/>
+    <mergeCell ref="AU32:AY32"/>
+    <mergeCell ref="AZ32:BO32"/>
+    <mergeCell ref="AL27:BO27"/>
+    <mergeCell ref="AL28:AT28"/>
+    <mergeCell ref="AU28:AY28"/>
+    <mergeCell ref="AZ28:BO28"/>
+    <mergeCell ref="AL29:AT29"/>
+    <mergeCell ref="AU29:AY29"/>
+    <mergeCell ref="AZ29:BO29"/>
+    <mergeCell ref="AL30:AT30"/>
+    <mergeCell ref="AU30:AY30"/>
+    <mergeCell ref="AZ30:BO30"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BO10"/>
+    <mergeCell ref="AL31:AT31"/>
+    <mergeCell ref="AU31:AY31"/>
+    <mergeCell ref="AZ31:BO31"/>
+    <mergeCell ref="AC27:AK28"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="C22:P22"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="I15:BO15"/>
     <mergeCell ref="I13:BO13"/>
@@ -7877,35 +7910,42 @@
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="Q17:W17"/>
     <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BO10"/>
-    <mergeCell ref="AL31:AT31"/>
-    <mergeCell ref="AU31:AY31"/>
-    <mergeCell ref="AZ31:BO31"/>
-    <mergeCell ref="AC27:AK28"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="C22:P22"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AL32:AT32"/>
-    <mergeCell ref="AU32:AY32"/>
-    <mergeCell ref="AZ32:BO32"/>
-    <mergeCell ref="AL27:BO27"/>
-    <mergeCell ref="AL28:AT28"/>
-    <mergeCell ref="AU28:AY28"/>
-    <mergeCell ref="AZ28:BO28"/>
-    <mergeCell ref="AL29:AT29"/>
-    <mergeCell ref="AU29:AY29"/>
-    <mergeCell ref="AZ29:BO29"/>
-    <mergeCell ref="AL30:AT30"/>
-    <mergeCell ref="AU30:AY30"/>
-    <mergeCell ref="AZ30:BO30"/>
+    <mergeCell ref="AK18:BO18"/>
+    <mergeCell ref="C17:P17"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="C23:P23"/>
+    <mergeCell ref="AK19:BO19"/>
+    <mergeCell ref="AK20:BO20"/>
+    <mergeCell ref="Q22:W22"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="Q23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="AK23:BO23"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AK22:BO22"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="AC31:AK31"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="L32:AB32"/>
+    <mergeCell ref="AC32:AK32"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L29:AB29"/>
+    <mergeCell ref="AC29:AK29"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="L30:AB30"/>
+    <mergeCell ref="AC30:AK30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:K28"/>
+    <mergeCell ref="L27:AB28"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="L31:AB31"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -7954,9 +7994,11 @@
     <tabColor rgb="FFB7B7B7"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C35" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -7967,7 +8009,7 @@
     <col min="9" max="9" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="26" t="s">
         <v>16</v>
       </c>
@@ -7986,7 +8028,7 @@
       <c r="H1" s="28"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="27" t="s">
         <v>41</v>
       </c>
@@ -8005,7 +8047,7 @@
       <c r="H2" s="27"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="27" t="s">
         <v>44</v>
       </c>
@@ -8024,7 +8066,7 @@
       <c r="H3" s="27"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="27" t="s">
         <v>48</v>
       </c>
@@ -8041,7 +8083,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="27" t="s">
         <v>51</v>
       </c>
@@ -8058,7 +8100,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="27" t="s">
         <v>54</v>
       </c>
@@ -8073,10 +8115,10 @@
       <c r="H6" s="27"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="27"/>
       <c r="B7" s="27" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -8086,10 +8128,10 @@
       <c r="H7" s="27"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="27"/>
       <c r="B8" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -8099,10 +8141,10 @@
       <c r="H8" s="27"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="27"/>
       <c r="B9" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -8112,10 +8154,10 @@
       <c r="H9" s="27"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="27"/>
       <c r="B10" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -8125,10 +8167,10 @@
       <c r="H10" s="27"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="27"/>
       <c r="B11" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -8138,10 +8180,10 @@
       <c r="H11" s="27"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="27"/>
       <c r="B12" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -8151,10 +8193,10 @@
       <c r="H12" s="27"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="27"/>
       <c r="B13" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -8164,10 +8206,10 @@
       <c r="H13" s="27"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="27"/>
       <c r="B14" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -8177,10 +8219,10 @@
       <c r="H14" s="27"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="27"/>
       <c r="B15" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -8190,10 +8232,10 @@
       <c r="H15" s="27"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="27"/>
       <c r="B16" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -8203,10 +8245,10 @@
       <c r="H16" s="27"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="27"/>
       <c r="B17" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -8216,10 +8258,10 @@
       <c r="H17" s="27"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="27"/>
       <c r="B18" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -8229,10 +8271,10 @@
       <c r="H18" s="27"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="27"/>
       <c r="B19" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -8242,10 +8284,10 @@
       <c r="H19" s="27"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="27"/>
       <c r="B20" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -8255,10 +8297,10 @@
       <c r="H20" s="27"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="27"/>
       <c r="B21" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -8268,10 +8310,10 @@
       <c r="H21" s="27"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="27"/>
       <c r="B22" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -8281,10 +8323,10 @@
       <c r="H22" s="27"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" ht="16.5">
       <c r="A23" s="27"/>
       <c r="B23" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -8294,9 +8336,11 @@
       <c r="H23" s="27"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" ht="16.5">
       <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
+      <c r="B24" s="27" t="s">
+        <v>72</v>
+      </c>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
@@ -8305,9 +8349,11 @@
       <c r="H24" s="27"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
+      <c r="B25" s="27" t="s">
+        <v>104</v>
+      </c>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
@@ -8316,7 +8362,7 @@
       <c r="H25" s="27"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" ht="16.5">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -8327,16 +8373,27 @@
       <c r="H26" s="27"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
+    <row r="27" spans="1:9" ht="16.5">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
       <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.5">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>

--- a/ha-asset/01_design/05_rootapi/設計書_5.1.ログインAPI.xlsx
+++ b/ha-asset/01_design/05_rootapi/設計書_5.1.ログインAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\05_rootapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7EB1EE-4A7D-485B-862F-AF44C8CF2E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE96A80-E6B5-49BC-89FA-F0397D725977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="270" windowWidth="27675" windowHeight="15150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="180" windowWidth="18975" windowHeight="15150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -912,7 +912,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1069,11 +1069,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1085,46 +1090,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1132,20 +1102,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1153,19 +1123,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1173,6 +1170,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4410,7 +4419,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="85" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="45"/>
@@ -4418,7 +4427,7 @@
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
       <c r="H7" s="46"/>
-      <c r="I7" s="62" t="s">
+      <c r="I7" s="67" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="45"/>
@@ -4484,7 +4493,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="85" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="45"/>
@@ -4492,7 +4501,7 @@
       <c r="F8" s="45"/>
       <c r="G8" s="45"/>
       <c r="H8" s="46"/>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="67" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="45"/>
@@ -4558,7 +4567,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="85" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="45"/>
@@ -4566,7 +4575,7 @@
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
       <c r="H9" s="46"/>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="67" t="s">
         <v>28</v>
       </c>
       <c r="J9" s="45"/>
@@ -4632,75 +4641,75 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="75" t="s">
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="75"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="75"/>
-      <c r="AG10" s="75"/>
-      <c r="AH10" s="75"/>
-      <c r="AI10" s="75"/>
-      <c r="AJ10" s="75"/>
-      <c r="AK10" s="75"/>
-      <c r="AL10" s="75"/>
-      <c r="AM10" s="75"/>
-      <c r="AN10" s="75"/>
-      <c r="AO10" s="75"/>
-      <c r="AP10" s="75"/>
-      <c r="AQ10" s="75"/>
-      <c r="AR10" s="75"/>
-      <c r="AS10" s="75"/>
-      <c r="AT10" s="75"/>
-      <c r="AU10" s="75"/>
-      <c r="AV10" s="75"/>
-      <c r="AW10" s="75"/>
-      <c r="AX10" s="75"/>
-      <c r="AY10" s="75"/>
-      <c r="AZ10" s="75"/>
-      <c r="BA10" s="75"/>
-      <c r="BB10" s="75"/>
-      <c r="BC10" s="75"/>
-      <c r="BD10" s="75"/>
-      <c r="BE10" s="75"/>
-      <c r="BF10" s="75"/>
-      <c r="BG10" s="75"/>
-      <c r="BH10" s="75"/>
-      <c r="BI10" s="75"/>
-      <c r="BJ10" s="75"/>
-      <c r="BK10" s="75"/>
-      <c r="BL10" s="75"/>
-      <c r="BM10" s="75"/>
-      <c r="BN10" s="75"/>
-      <c r="BO10" s="75"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="87"/>
+      <c r="AE10" s="87"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="87"/>
+      <c r="AS10" s="87"/>
+      <c r="AT10" s="87"/>
+      <c r="AU10" s="87"/>
+      <c r="AV10" s="87"/>
+      <c r="AW10" s="87"/>
+      <c r="AX10" s="87"/>
+      <c r="AY10" s="87"/>
+      <c r="AZ10" s="87"/>
+      <c r="BA10" s="87"/>
+      <c r="BB10" s="87"/>
+      <c r="BC10" s="87"/>
+      <c r="BD10" s="87"/>
+      <c r="BE10" s="87"/>
+      <c r="BF10" s="87"/>
+      <c r="BG10" s="87"/>
+      <c r="BH10" s="87"/>
+      <c r="BI10" s="87"/>
+      <c r="BJ10" s="87"/>
+      <c r="BK10" s="87"/>
+      <c r="BL10" s="87"/>
+      <c r="BM10" s="87"/>
+      <c r="BN10" s="87"/>
+      <c r="BO10" s="87"/>
       <c r="BP10" s="31"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -4779,14 +4788,14 @@
       <c r="A12" s="2"/>
       <c r="B12" s="13"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="67" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="45"/>
       <c r="F12" s="45"/>
       <c r="G12" s="45"/>
       <c r="H12" s="46"/>
-      <c r="I12" s="64" t="s">
+      <c r="I12" s="65" t="s">
         <v>31</v>
       </c>
       <c r="J12" s="45"/>
@@ -4853,14 +4862,14 @@
       <c r="A13" s="2"/>
       <c r="B13" s="13"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="67" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
       <c r="G13" s="45"/>
       <c r="H13" s="46"/>
-      <c r="I13" s="64" t="s">
+      <c r="I13" s="65" t="s">
         <v>33</v>
       </c>
       <c r="J13" s="45"/>
@@ -4999,14 +5008,14 @@
       <c r="A15" s="2"/>
       <c r="B15" s="13"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="67" t="s">
         <v>78</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="45"/>
       <c r="G15" s="45"/>
       <c r="H15" s="46"/>
-      <c r="I15" s="64" t="s">
+      <c r="I15" s="65" t="s">
         <v>79</v>
       </c>
       <c r="J15" s="45"/>
@@ -5071,7 +5080,7 @@
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="88" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="54"/>
@@ -5178,7 +5187,7 @@
       <c r="AB17" s="45"/>
       <c r="AC17" s="45"/>
       <c r="AD17" s="46"/>
-      <c r="AE17" s="71" t="s">
+      <c r="AE17" s="85" t="s">
         <v>22</v>
       </c>
       <c r="AF17" s="45"/>
@@ -5242,7 +5251,7 @@
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="23"/>
-      <c r="Q18" s="72" t="s">
+      <c r="Q18" s="79" t="s">
         <v>38</v>
       </c>
       <c r="R18" s="45"/>
@@ -5251,21 +5260,21 @@
       <c r="U18" s="45"/>
       <c r="V18" s="45"/>
       <c r="W18" s="46"/>
-      <c r="X18" s="40" t="s">
+      <c r="X18" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="38"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="45"/>
+      <c r="AD18" s="46"/>
       <c r="AE18" s="39"/>
       <c r="AF18" s="37"/>
       <c r="AG18" s="38"/>
-      <c r="AH18" s="40"/>
-      <c r="AI18" s="37"/>
-      <c r="AJ18" s="38"/>
+      <c r="AH18" s="81"/>
+      <c r="AI18" s="82"/>
+      <c r="AJ18" s="83"/>
       <c r="AK18" s="40"/>
       <c r="AL18" s="37"/>
       <c r="AM18" s="37"/>
@@ -5318,7 +5327,7 @@
       <c r="N19" s="42"/>
       <c r="O19" s="42"/>
       <c r="P19" s="43"/>
-      <c r="Q19" s="72" t="s">
+      <c r="Q19" s="79" t="s">
         <v>55</v>
       </c>
       <c r="R19" s="45"/>
@@ -5327,7 +5336,7 @@
       <c r="U19" s="45"/>
       <c r="V19" s="45"/>
       <c r="W19" s="46"/>
-      <c r="X19" s="70" t="s">
+      <c r="X19" s="80" t="s">
         <v>39</v>
       </c>
       <c r="Y19" s="45"/>
@@ -5336,13 +5345,13 @@
       <c r="AB19" s="45"/>
       <c r="AC19" s="45"/>
       <c r="AD19" s="46"/>
-      <c r="AE19" s="62"/>
+      <c r="AE19" s="67"/>
       <c r="AF19" s="45"/>
       <c r="AG19" s="46"/>
-      <c r="AH19" s="70"/>
-      <c r="AI19" s="45"/>
-      <c r="AJ19" s="46"/>
-      <c r="AK19" s="70"/>
+      <c r="AH19" s="81"/>
+      <c r="AI19" s="82"/>
+      <c r="AJ19" s="83"/>
+      <c r="AK19" s="80"/>
       <c r="AL19" s="45"/>
       <c r="AM19" s="45"/>
       <c r="AN19" s="45"/>
@@ -5377,7 +5386,7 @@
     </row>
     <row r="20" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="88" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="54"/>
@@ -5484,7 +5493,7 @@
       <c r="AB21" s="45"/>
       <c r="AC21" s="45"/>
       <c r="AD21" s="46"/>
-      <c r="AE21" s="71" t="s">
+      <c r="AE21" s="85" t="s">
         <v>22</v>
       </c>
       <c r="AF21" s="45"/>
@@ -5532,7 +5541,7 @@
     <row r="22" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A22" s="2"/>
       <c r="B22" s="33"/>
-      <c r="C22" s="62"/>
+      <c r="C22" s="67"/>
       <c r="D22" s="45"/>
       <c r="E22" s="45"/>
       <c r="F22" s="45"/>
@@ -5546,27 +5555,27 @@
       <c r="N22" s="45"/>
       <c r="O22" s="45"/>
       <c r="P22" s="46"/>
-      <c r="Q22" s="70"/>
+      <c r="Q22" s="80"/>
       <c r="R22" s="45"/>
       <c r="S22" s="45"/>
       <c r="T22" s="45"/>
       <c r="U22" s="45"/>
       <c r="V22" s="45"/>
       <c r="W22" s="46"/>
-      <c r="X22" s="70"/>
+      <c r="X22" s="80"/>
       <c r="Y22" s="45"/>
       <c r="Z22" s="45"/>
       <c r="AA22" s="45"/>
       <c r="AB22" s="45"/>
       <c r="AC22" s="45"/>
       <c r="AD22" s="46"/>
-      <c r="AE22" s="62"/>
+      <c r="AE22" s="67"/>
       <c r="AF22" s="45"/>
       <c r="AG22" s="46"/>
-      <c r="AH22" s="70"/>
-      <c r="AI22" s="45"/>
-      <c r="AJ22" s="46"/>
-      <c r="AK22" s="70"/>
+      <c r="AH22" s="81"/>
+      <c r="AI22" s="82"/>
+      <c r="AJ22" s="83"/>
+      <c r="AK22" s="80"/>
       <c r="AL22" s="45"/>
       <c r="AM22" s="45"/>
       <c r="AN22" s="45"/>
@@ -5858,7 +5867,7 @@
       <c r="AI26" s="54"/>
       <c r="AJ26" s="54"/>
       <c r="AK26" s="55"/>
-      <c r="AL26" s="77" t="s">
+      <c r="AL26" s="96" t="s">
         <v>12</v>
       </c>
       <c r="AM26" s="45"/>
@@ -5921,16 +5930,16 @@
       <c r="Z27" s="57"/>
       <c r="AA27" s="57"/>
       <c r="AB27" s="58"/>
-      <c r="AC27" s="76"/>
-      <c r="AD27" s="61"/>
-      <c r="AE27" s="61"/>
-      <c r="AF27" s="61"/>
-      <c r="AG27" s="61"/>
-      <c r="AH27" s="61"/>
-      <c r="AI27" s="61"/>
-      <c r="AJ27" s="61"/>
+      <c r="AC27" s="89"/>
+      <c r="AD27" s="90"/>
+      <c r="AE27" s="90"/>
+      <c r="AF27" s="90"/>
+      <c r="AG27" s="90"/>
+      <c r="AH27" s="90"/>
+      <c r="AI27" s="90"/>
+      <c r="AJ27" s="90"/>
       <c r="AK27" s="52"/>
-      <c r="AL27" s="78" t="s">
+      <c r="AL27" s="97" t="s">
         <v>13</v>
       </c>
       <c r="AM27" s="45"/>
@@ -5941,14 +5950,14 @@
       <c r="AR27" s="45"/>
       <c r="AS27" s="45"/>
       <c r="AT27" s="46"/>
-      <c r="AU27" s="78" t="s">
+      <c r="AU27" s="97" t="s">
         <v>14</v>
       </c>
       <c r="AV27" s="45"/>
       <c r="AW27" s="45"/>
       <c r="AX27" s="45"/>
       <c r="AY27" s="46"/>
-      <c r="AZ27" s="78" t="s">
+      <c r="AZ27" s="97" t="s">
         <v>15</v>
       </c>
       <c r="BA27" s="45"/>
@@ -5974,79 +5983,79 @@
         <f ca="1">MAX(B$26:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="81"/>
-      <c r="S28" s="81"/>
-      <c r="T28" s="81"/>
-      <c r="U28" s="81"/>
-      <c r="V28" s="81"/>
-      <c r="W28" s="81"/>
-      <c r="X28" s="81"/>
-      <c r="Y28" s="81"/>
-      <c r="Z28" s="81"/>
-      <c r="AA28" s="81"/>
-      <c r="AB28" s="82"/>
-      <c r="AC28" s="79" t="s">
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69"/>
+      <c r="T28" s="69"/>
+      <c r="U28" s="69"/>
+      <c r="V28" s="69"/>
+      <c r="W28" s="69"/>
+      <c r="X28" s="69"/>
+      <c r="Y28" s="69"/>
+      <c r="Z28" s="69"/>
+      <c r="AA28" s="69"/>
+      <c r="AB28" s="70"/>
+      <c r="AC28" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="AD28" s="83"/>
-      <c r="AE28" s="83"/>
-      <c r="AF28" s="83"/>
-      <c r="AG28" s="83"/>
-      <c r="AH28" s="83"/>
-      <c r="AI28" s="83"/>
-      <c r="AJ28" s="83"/>
-      <c r="AK28" s="84"/>
+      <c r="AD28" s="73"/>
+      <c r="AE28" s="73"/>
+      <c r="AF28" s="73"/>
+      <c r="AG28" s="73"/>
+      <c r="AH28" s="73"/>
+      <c r="AI28" s="73"/>
+      <c r="AJ28" s="73"/>
+      <c r="AK28" s="74"/>
       <c r="AL28" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="AM28" s="85"/>
-      <c r="AN28" s="85"/>
-      <c r="AO28" s="85"/>
-      <c r="AP28" s="85"/>
-      <c r="AQ28" s="85"/>
-      <c r="AR28" s="85"/>
-      <c r="AS28" s="85"/>
-      <c r="AT28" s="86"/>
+      <c r="AM28" s="98"/>
+      <c r="AN28" s="98"/>
+      <c r="AO28" s="98"/>
+      <c r="AP28" s="98"/>
+      <c r="AQ28" s="98"/>
+      <c r="AR28" s="98"/>
+      <c r="AS28" s="98"/>
+      <c r="AT28" s="99"/>
       <c r="AU28" s="44"/>
-      <c r="AV28" s="85"/>
-      <c r="AW28" s="85"/>
-      <c r="AX28" s="85"/>
-      <c r="AY28" s="86"/>
-      <c r="AZ28" s="87" t="s">
+      <c r="AV28" s="98"/>
+      <c r="AW28" s="98"/>
+      <c r="AX28" s="98"/>
+      <c r="AY28" s="99"/>
+      <c r="AZ28" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="BA28" s="85"/>
-      <c r="BB28" s="85"/>
-      <c r="BC28" s="85"/>
-      <c r="BD28" s="85"/>
-      <c r="BE28" s="85"/>
-      <c r="BF28" s="85"/>
-      <c r="BG28" s="85"/>
-      <c r="BH28" s="85"/>
-      <c r="BI28" s="85"/>
-      <c r="BJ28" s="85"/>
-      <c r="BK28" s="85"/>
-      <c r="BL28" s="85"/>
-      <c r="BM28" s="85"/>
-      <c r="BN28" s="85"/>
-      <c r="BO28" s="86"/>
+      <c r="BA28" s="98"/>
+      <c r="BB28" s="98"/>
+      <c r="BC28" s="98"/>
+      <c r="BD28" s="98"/>
+      <c r="BE28" s="98"/>
+      <c r="BF28" s="98"/>
+      <c r="BG28" s="98"/>
+      <c r="BH28" s="98"/>
+      <c r="BI28" s="98"/>
+      <c r="BJ28" s="98"/>
+      <c r="BK28" s="98"/>
+      <c r="BL28" s="98"/>
+      <c r="BM28" s="98"/>
+      <c r="BN28" s="98"/>
+      <c r="BO28" s="99"/>
       <c r="BP28" s="2"/>
     </row>
     <row r="29" spans="1:68" ht="16.5" outlineLevel="1">
@@ -6055,77 +6064,77 @@
         <f ca="1">MAX(B$26:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="88"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="88"/>
-      <c r="U29" s="88"/>
-      <c r="V29" s="88"/>
-      <c r="W29" s="88"/>
-      <c r="X29" s="88"/>
-      <c r="Y29" s="88"/>
-      <c r="Z29" s="88"/>
-      <c r="AA29" s="88"/>
-      <c r="AB29" s="89"/>
-      <c r="AC29" s="79" t="s">
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="76"/>
+      <c r="R29" s="76"/>
+      <c r="S29" s="76"/>
+      <c r="T29" s="76"/>
+      <c r="U29" s="76"/>
+      <c r="V29" s="76"/>
+      <c r="W29" s="76"/>
+      <c r="X29" s="76"/>
+      <c r="Y29" s="76"/>
+      <c r="Z29" s="76"/>
+      <c r="AA29" s="76"/>
+      <c r="AB29" s="77"/>
+      <c r="AC29" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="AD29" s="83"/>
-      <c r="AE29" s="83"/>
-      <c r="AF29" s="83"/>
-      <c r="AG29" s="83"/>
-      <c r="AH29" s="83"/>
-      <c r="AI29" s="83"/>
-      <c r="AJ29" s="83"/>
-      <c r="AK29" s="84"/>
+      <c r="AD29" s="73"/>
+      <c r="AE29" s="73"/>
+      <c r="AF29" s="73"/>
+      <c r="AG29" s="73"/>
+      <c r="AH29" s="73"/>
+      <c r="AI29" s="73"/>
+      <c r="AJ29" s="73"/>
+      <c r="AK29" s="74"/>
       <c r="AL29" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="AM29" s="85"/>
-      <c r="AN29" s="85"/>
-      <c r="AO29" s="85"/>
-      <c r="AP29" s="85"/>
-      <c r="AQ29" s="85"/>
-      <c r="AR29" s="85"/>
-      <c r="AS29" s="85"/>
-      <c r="AT29" s="86"/>
+      <c r="AM29" s="98"/>
+      <c r="AN29" s="98"/>
+      <c r="AO29" s="98"/>
+      <c r="AP29" s="98"/>
+      <c r="AQ29" s="98"/>
+      <c r="AR29" s="98"/>
+      <c r="AS29" s="98"/>
+      <c r="AT29" s="99"/>
       <c r="AU29" s="44"/>
-      <c r="AV29" s="85"/>
-      <c r="AW29" s="85"/>
-      <c r="AX29" s="85"/>
-      <c r="AY29" s="86"/>
-      <c r="AZ29" s="87" t="s">
+      <c r="AV29" s="98"/>
+      <c r="AW29" s="98"/>
+      <c r="AX29" s="98"/>
+      <c r="AY29" s="99"/>
+      <c r="AZ29" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="BA29" s="85"/>
-      <c r="BB29" s="85"/>
-      <c r="BC29" s="85"/>
-      <c r="BD29" s="85"/>
-      <c r="BE29" s="85"/>
-      <c r="BF29" s="85"/>
-      <c r="BG29" s="85"/>
-      <c r="BH29" s="85"/>
-      <c r="BI29" s="85"/>
-      <c r="BJ29" s="85"/>
-      <c r="BK29" s="85"/>
-      <c r="BL29" s="85"/>
-      <c r="BM29" s="85"/>
-      <c r="BN29" s="85"/>
-      <c r="BO29" s="86"/>
+      <c r="BA29" s="98"/>
+      <c r="BB29" s="98"/>
+      <c r="BC29" s="98"/>
+      <c r="BD29" s="98"/>
+      <c r="BE29" s="98"/>
+      <c r="BF29" s="98"/>
+      <c r="BG29" s="98"/>
+      <c r="BH29" s="98"/>
+      <c r="BI29" s="98"/>
+      <c r="BJ29" s="98"/>
+      <c r="BK29" s="98"/>
+      <c r="BL29" s="98"/>
+      <c r="BM29" s="98"/>
+      <c r="BN29" s="98"/>
+      <c r="BO29" s="99"/>
       <c r="BP29" s="2"/>
     </row>
     <row r="30" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
@@ -6137,78 +6146,78 @@
       <c r="C30" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="60" t="s">
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="92"/>
-      <c r="Q30" s="92"/>
-      <c r="R30" s="92"/>
-      <c r="S30" s="92"/>
-      <c r="T30" s="92"/>
-      <c r="U30" s="92"/>
-      <c r="V30" s="92"/>
-      <c r="W30" s="92"/>
-      <c r="X30" s="92"/>
-      <c r="Y30" s="92"/>
-      <c r="Z30" s="92"/>
-      <c r="AA30" s="92"/>
-      <c r="AB30" s="92"/>
-      <c r="AC30" s="80" t="s">
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="63"/>
+      <c r="U30" s="63"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="63"/>
+      <c r="Y30" s="63"/>
+      <c r="Z30" s="63"/>
+      <c r="AA30" s="63"/>
+      <c r="AB30" s="63"/>
+      <c r="AC30" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="AD30" s="83"/>
-      <c r="AE30" s="83"/>
-      <c r="AF30" s="83"/>
-      <c r="AG30" s="83"/>
-      <c r="AH30" s="83"/>
-      <c r="AI30" s="83"/>
-      <c r="AJ30" s="83"/>
-      <c r="AK30" s="84"/>
+      <c r="AD30" s="73"/>
+      <c r="AE30" s="73"/>
+      <c r="AF30" s="73"/>
+      <c r="AG30" s="73"/>
+      <c r="AH30" s="73"/>
+      <c r="AI30" s="73"/>
+      <c r="AJ30" s="73"/>
+      <c r="AK30" s="74"/>
       <c r="AL30" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="AM30" s="85"/>
-      <c r="AN30" s="85"/>
-      <c r="AO30" s="85"/>
-      <c r="AP30" s="85"/>
-      <c r="AQ30" s="85"/>
-      <c r="AR30" s="85"/>
-      <c r="AS30" s="85"/>
-      <c r="AT30" s="86"/>
+      <c r="AM30" s="98"/>
+      <c r="AN30" s="98"/>
+      <c r="AO30" s="98"/>
+      <c r="AP30" s="98"/>
+      <c r="AQ30" s="98"/>
+      <c r="AR30" s="98"/>
+      <c r="AS30" s="98"/>
+      <c r="AT30" s="99"/>
       <c r="AU30" s="44"/>
-      <c r="AV30" s="85"/>
-      <c r="AW30" s="85"/>
-      <c r="AX30" s="85"/>
-      <c r="AY30" s="86"/>
-      <c r="AZ30" s="87" t="s">
+      <c r="AV30" s="98"/>
+      <c r="AW30" s="98"/>
+      <c r="AX30" s="98"/>
+      <c r="AY30" s="99"/>
+      <c r="AZ30" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="BA30" s="85"/>
-      <c r="BB30" s="85"/>
-      <c r="BC30" s="85"/>
-      <c r="BD30" s="85"/>
-      <c r="BE30" s="85"/>
-      <c r="BF30" s="85"/>
-      <c r="BG30" s="85"/>
-      <c r="BH30" s="85"/>
-      <c r="BI30" s="85"/>
-      <c r="BJ30" s="85"/>
-      <c r="BK30" s="85"/>
-      <c r="BL30" s="85"/>
-      <c r="BM30" s="85"/>
-      <c r="BN30" s="85"/>
-      <c r="BO30" s="86"/>
+      <c r="BA30" s="98"/>
+      <c r="BB30" s="98"/>
+      <c r="BC30" s="98"/>
+      <c r="BD30" s="98"/>
+      <c r="BE30" s="98"/>
+      <c r="BF30" s="98"/>
+      <c r="BG30" s="98"/>
+      <c r="BH30" s="98"/>
+      <c r="BI30" s="98"/>
+      <c r="BJ30" s="98"/>
+      <c r="BK30" s="98"/>
+      <c r="BL30" s="98"/>
+      <c r="BM30" s="98"/>
+      <c r="BN30" s="98"/>
+      <c r="BO30" s="99"/>
       <c r="BP30" s="2"/>
     </row>
     <row r="31" spans="1:68" ht="16.5" outlineLevel="1">
@@ -6217,75 +6226,75 @@
         <f ca="1">MAX(B$26:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="62" t="s">
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
-      <c r="S31" s="64"/>
-      <c r="T31" s="64"/>
-      <c r="U31" s="64"/>
-      <c r="V31" s="64"/>
-      <c r="W31" s="64"/>
-      <c r="X31" s="64"/>
-      <c r="Y31" s="64"/>
-      <c r="Z31" s="64"/>
-      <c r="AA31" s="64"/>
-      <c r="AB31" s="65"/>
-      <c r="AC31" s="62"/>
-      <c r="AD31" s="64"/>
-      <c r="AE31" s="64"/>
-      <c r="AF31" s="64"/>
-      <c r="AG31" s="64"/>
-      <c r="AH31" s="64"/>
-      <c r="AI31" s="64"/>
-      <c r="AJ31" s="64"/>
-      <c r="AK31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="65"/>
+      <c r="R31" s="65"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="65"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="65"/>
+      <c r="Z31" s="65"/>
+      <c r="AA31" s="65"/>
+      <c r="AB31" s="66"/>
+      <c r="AC31" s="67"/>
+      <c r="AD31" s="65"/>
+      <c r="AE31" s="65"/>
+      <c r="AF31" s="65"/>
+      <c r="AG31" s="65"/>
+      <c r="AH31" s="65"/>
+      <c r="AI31" s="65"/>
+      <c r="AJ31" s="65"/>
+      <c r="AK31" s="66"/>
       <c r="AL31" s="44"/>
-      <c r="AM31" s="93"/>
-      <c r="AN31" s="93"/>
-      <c r="AO31" s="93"/>
-      <c r="AP31" s="93"/>
-      <c r="AQ31" s="93"/>
-      <c r="AR31" s="93"/>
-      <c r="AS31" s="93"/>
-      <c r="AT31" s="94"/>
+      <c r="AM31" s="91"/>
+      <c r="AN31" s="91"/>
+      <c r="AO31" s="91"/>
+      <c r="AP31" s="91"/>
+      <c r="AQ31" s="91"/>
+      <c r="AR31" s="91"/>
+      <c r="AS31" s="91"/>
+      <c r="AT31" s="92"/>
       <c r="AU31" s="44"/>
-      <c r="AV31" s="93"/>
-      <c r="AW31" s="93"/>
-      <c r="AX31" s="93"/>
-      <c r="AY31" s="94"/>
-      <c r="AZ31" s="87"/>
-      <c r="BA31" s="95"/>
-      <c r="BB31" s="95"/>
-      <c r="BC31" s="95"/>
-      <c r="BD31" s="95"/>
-      <c r="BE31" s="95"/>
-      <c r="BF31" s="95"/>
-      <c r="BG31" s="95"/>
-      <c r="BH31" s="95"/>
-      <c r="BI31" s="95"/>
-      <c r="BJ31" s="95"/>
-      <c r="BK31" s="95"/>
-      <c r="BL31" s="95"/>
-      <c r="BM31" s="95"/>
-      <c r="BN31" s="95"/>
-      <c r="BO31" s="96"/>
+      <c r="AV31" s="91"/>
+      <c r="AW31" s="91"/>
+      <c r="AX31" s="91"/>
+      <c r="AY31" s="92"/>
+      <c r="AZ31" s="93"/>
+      <c r="BA31" s="94"/>
+      <c r="BB31" s="94"/>
+      <c r="BC31" s="94"/>
+      <c r="BD31" s="94"/>
+      <c r="BE31" s="94"/>
+      <c r="BF31" s="94"/>
+      <c r="BG31" s="94"/>
+      <c r="BH31" s="94"/>
+      <c r="BI31" s="94"/>
+      <c r="BJ31" s="94"/>
+      <c r="BK31" s="94"/>
+      <c r="BL31" s="94"/>
+      <c r="BM31" s="94"/>
+      <c r="BN31" s="94"/>
+      <c r="BO31" s="95"/>
       <c r="BP31" s="2"/>
     </row>
     <row r="32" spans="1:68" ht="16.5">
@@ -7849,7 +7858,7 @@
       <c r="BP53" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="72">
     <mergeCell ref="AL31:AT31"/>
     <mergeCell ref="AU31:AY31"/>
     <mergeCell ref="AZ31:BO31"/>
@@ -7866,30 +7875,10 @@
     <mergeCell ref="AL30:AT30"/>
     <mergeCell ref="AU30:AY30"/>
     <mergeCell ref="AZ30:BO30"/>
-    <mergeCell ref="AC26:AK27"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="C21:P21"/>
     <mergeCell ref="I13:BO13"/>
     <mergeCell ref="AK17:BO17"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BO7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BO8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BO9"/>
-    <mergeCell ref="I12:BO12"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BO10"/>
-    <mergeCell ref="C17:P17"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="I15:BO15"/>
     <mergeCell ref="C22:P22"/>
     <mergeCell ref="AK19:BO19"/>
     <mergeCell ref="Q21:W21"/>
@@ -7901,11 +7890,33 @@
     <mergeCell ref="AK22:BO22"/>
     <mergeCell ref="AE21:AG21"/>
     <mergeCell ref="AK21:BO21"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BO7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BO8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BO10"/>
+    <mergeCell ref="C17:P17"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="I15:BO15"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="I12:BO12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="X17:AD17"/>
     <mergeCell ref="Q19:W19"/>
     <mergeCell ref="X19:AD19"/>
     <mergeCell ref="AE19:AG19"/>
     <mergeCell ref="AH19:AJ19"/>
     <mergeCell ref="AC30:AK30"/>
+    <mergeCell ref="AC26:AK27"/>
     <mergeCell ref="C31:K31"/>
     <mergeCell ref="L31:AB31"/>
     <mergeCell ref="AC31:AK31"/>
@@ -7971,7 +7982,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C35" sqref="A1:XFD1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
